--- a/plugins/project_metrics/download/iniaobservation/iNia_observation_updated_V1.0.xlsx
+++ b/plugins/project_metrics/download/iniaobservation/iNia_observation_updated_V1.0.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr date1904="false" showObjects="all" backupFile="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="960" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="925" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="iNia-Scorecard" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="DataSheet" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Data" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="iNia-Scorecard" sheetId="1" state="visible" r:id="rId4"/>
+    <sheet name="DataSheet" sheetId="2" state="visible" r:id="rId5"/>
+    <sheet name="Data" sheetId="3" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" name="_xlfn_COUNTIFS" vbProcedure="false"/>
-    <definedName function="false" hidden="false" localSheetId="2" name="Excel_BuiltIn__FilterDatabase" vbProcedure="false">Data!$A$1:$BC$29</definedName>
+    <definedName name="_xlfn_COUNTIFS" hidden="false" function="false" vbProcedure="false">{#NAME?}</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase" localSheetId="2" hidden="false" function="false" vbProcedure="false">Data!$A$1:$BC$29</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr refMode="A1" iterate="false" iterateCount="100" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="74" count="74">
   <si>
     <t>Account</t>
   </si>
@@ -92,11 +92,11 @@
     <t>Target</t>
   </si>
   <si>
-    <t>Relative Performance
+    <t xml:space="preserve">Relative Performance
 </t>
   </si>
   <si>
-    <t>Absolute Performance
+    <t xml:space="preserve">Absolute Performance
 </t>
   </si>
   <si>
@@ -118,10 +118,10 @@
     <t>CO</t>
   </si>
   <si>
-    <t>Un Managed Task </t>
-  </si>
-  <si>
-    <t>Unmanaged task (A task without due dates)
+    <t xml:space="preserve">Un Managed Task </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unmanaged task (A task without due dates)
 1. Is due date present for a task for which the status is not New, Suspend, Carried or Hold</t>
   </si>
   <si>
@@ -131,7 +131,7 @@
     <t>Over due task</t>
   </si>
   <si>
-    <t>Overdue task (A task is considered as overdue when it is not completed on the due date)
+    <t xml:space="preserve">Overdue task (A task is considered as overdue when it is not completed on the due date)
 1. Tasks closed on the specific due date.
 2. Status set as resolved if closed is subject to client confirmation
 3. Closed date should be within 2 working days from due date.Tickets to be associted with target versions
@@ -163,14 +163,14 @@
     <t>PMO Observation</t>
   </si>
   <si>
-    <t>Follow best practices 
+    <t xml:space="preserve">Follow best practices 
 Ref: http://inia.objectfrontier.com/redmine/projects/redmine/wiki/INia_Best_practices</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>1. Usage of Tracker (e.g. Bug should not be posted as Support tracker)
+    <t xml:space="preserve">1. Usage of Tracker (e.g. Bug should not be posted as Support tracker)
 2. Review comments clarity
 3. Naming conventions (e.g Sprint Name)
 4. Tracking of previous sprint open items </t>
@@ -185,7 +185,7 @@
     <t>Time log by contributors,POD Owner and Product Owner</t>
   </si>
   <si>
-    <t>1.All the contributors, POD owner and Product Owner (remote&amp; Local) should log their efforts including the PTO </t>
+    <t xml:space="preserve">1.All the contributors, POD owner and Product Owner (remote&amp; Local) should log their efforts including the PTO </t>
   </si>
   <si>
     <t>Time log by DO</t>
@@ -260,77 +260,77 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mv="urn:schemas-microsoft-com:mac:vml">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="0%"/>
-    <numFmt numFmtId="166" formatCode="MM/YY"/>
-    <numFmt numFmtId="167" formatCode="0"/>
+    <numFmt numFmtId="165" formatCode="MM/YY"/>
+    <numFmt numFmtId="166" formatCode="0"/>
+    <numFmt numFmtId="167" formatCode="0%"/>
     <numFmt numFmtId="168" formatCode="0.00%"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
+      <charset val="1"/>
       <family val="2"/>
+      <b val="1"/>
+      <sz val="10"/>
     </font>
     <font>
-      <b val="true"/>
+      <name val="Century Gothic"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color rgb="FF000000"/>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="10"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+      <family val="2"/>
       <color rgb="FF000000"/>
-      <name val="Century Gothic"/>
-      <family val="2"/>
+      <sz val="11"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Century Gothic"/>
+      <charset val="1"/>
       <family val="2"/>
-      <charset val="1"/>
+      <b val="1"/>
+      <sz val="10"/>
     </font>
     <font>
-      <b val="true"/>
+      <name val="Century Gothic"/>
+      <charset val="1"/>
+      <family val="2"/>
       <sz val="10"/>
-      <name val="Century Gothic"/>
-      <family val="2"/>
     </font>
     <font>
+      <name val="Century Gothic"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
       <sz val="10"/>
-      <name val="Century Gothic"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Century Gothic"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -504,230 +504,226 @@
     </border>
   </borders>
   <cellStyleXfs count="24">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+      <protection locked="1" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="1" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="1" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="1" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="1" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="1" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="1" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="1" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="1" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="1" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="1" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="1" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="1" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="1" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="1" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="1" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="1" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="1" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="1" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="1" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+      <protection locked="1" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+      <protection locked="1" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+      <protection locked="1" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+      <protection locked="1" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+      <protection locked="1" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="1" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+      <protection locked="1" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+      <protection locked="1" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+      <protection locked="1" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+      <protection locked="1" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="3" borderId="1" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="1" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+      <protection locked="1" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+      <protection locked="1" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+      <protection locked="1" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+      <protection locked="1" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+      <protection locked="1" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+      <protection locked="1" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+      <protection locked="1" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="1" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+      <protection locked="1" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" shrinkToFit="false"/>
+      <protection locked="1" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+      <protection locked="1" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" shrinkToFit="false"/>
+      <protection locked="1" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" shrinkToFit="false"/>
+      <protection locked="1" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="4" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" shrinkToFit="false"/>
+      <protection locked="1" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" shrinkToFit="false"/>
+      <protection locked="1" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" shrinkToFit="false"/>
+      <protection locked="1" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="6" borderId="6" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="167" fontId="8" fillId="6" borderId="6" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="false">
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="1" indent="0" shrinkToFit="false"/>
+      <protection locked="1" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="false">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+      <protection locked="1" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="7" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="8" fillId="2" borderId="7" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="false">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+      <protection locked="1" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="2" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="8" fillId="2" borderId="1" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="false">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+      <protection locked="1" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" shrinkToFit="false"/>
+      <protection locked="1" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="1" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" shrinkToFit="false"/>
+      <protection locked="1" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="6" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" shrinkToFit="false"/>
+      <protection locked="1" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" shrinkToFit="false"/>
+      <protection locked="1" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="6" borderId="6" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="166" fontId="8" fillId="6" borderId="6" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="false">
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="1" indent="0" shrinkToFit="false"/>
+      <protection locked="1" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" shrinkToFit="false"/>
+      <protection locked="1" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+      <protection locked="1" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+      <protection locked="1" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+      <protection locked="1" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+      <protection locked="1" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" shrinkToFit="false"/>
+      <protection locked="1" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="2" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="167" fontId="9" fillId="2" borderId="4" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" shrinkToFit="false"/>
+      <protection locked="1" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="6" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="6" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" shrinkToFit="false"/>
+      <protection locked="1" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+      <protection locked="1" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+      <protection locked="1" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+      <protection locked="1" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+      <protection locked="1" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="1" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+      <protection locked="1" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="1" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+      <protection locked="1" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+      <protection locked="1" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+      <protection locked="1" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -737,29 +733,18 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Normal 2" xfId="20" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Percent 2" xfId="21" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Normal 2" xfId="22" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Normal" xfId="23" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Normal 2" xfId="20" builtinId="54" customBuiltin="1"/>
+    <cellStyle name="Excel Built-in Excel Built-in Normal 2" xfId="21" builtinId="54" customBuiltin="1"/>
+    <cellStyle name="Excel Built-in Excel Built-in Normal" xfId="22" builtinId="54" customBuiltin="1"/>
+    <cellStyle name="Excel Built-in Percent 2" xfId="23" builtinId="54" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
         <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
       </font>
       <fill>
         <patternFill>
@@ -769,9 +754,10 @@
     </dxf>
     <dxf>
       <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
         <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
       </font>
       <fill>
         <patternFill>
@@ -843,36 +829,354 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="false"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="false">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="false">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="false">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mv="urn:schemas-microsoft-com:mac:vml">
   <sheetPr filterMode="false">
-    <tabColor rgb="00FFFFFF"/>
+    <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:IW22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="1:1048576"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="false" tabSelected="false" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="false" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="Z0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.5510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="20.5459183673469"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.8418367346939"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="4.41836734693878"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="51.234693877551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="14.4081632653061"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="10.6989795918367"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="7.56122448979592"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="6.70408163265306"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="8.41326530612245"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="8.98979591836735"/>
-    <col collapsed="false" hidden="false" max="257" min="13" style="1" width="9.13265306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="258" style="0" width="9.13265306122449"/>
+    <col min="1" max="1" width="16.5510204081633" style="1" hidden="false" collapsed="false"/>
+    <col min="2" max="2" width="20.5459183673469" style="1" hidden="false" collapsed="false"/>
+    <col min="3" max="3" width="10.8418367346939" style="1" hidden="false" collapsed="false"/>
+    <col min="4" max="4" width="4.41836734693878" style="1" hidden="false" collapsed="false"/>
+    <col min="5" max="5" width="51.234693877551" style="1" hidden="false" collapsed="false"/>
+    <col min="6" max="6" width="14.4081632653061" style="1" hidden="false" collapsed="false"/>
+    <col min="7" max="8" width="10.6989795918367" style="1" hidden="false" collapsed="false"/>
+    <col min="9" max="9" width="7.56122448979592" style="1" hidden="false" collapsed="false"/>
+    <col min="10" max="10" width="6.70408163265306" style="1" hidden="false" collapsed="false"/>
+    <col min="11" max="11" width="8.41326530612245" style="1" hidden="false" collapsed="false"/>
+    <col min="12" max="12" width="8.98979591836735" style="1" hidden="false" collapsed="false"/>
+    <col min="13" max="257" width="9.13265306122449" style="1" hidden="false" collapsed="false"/>
+    <col min="258" max="1025" width="9.13265306122449" style="0" hidden="false" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:257" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -886,8 +1190,260 @@
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="F1" s="0"/>
+      <c r="G1" s="0"/>
+      <c r="H1" s="0"/>
+      <c r="I1" s="0"/>
+      <c r="J1" s="0"/>
+      <c r="K1" s="0"/>
+      <c r="L1" s="0"/>
+      <c r="M1" s="0"/>
+      <c r="N1" s="0"/>
+      <c r="O1" s="0"/>
+      <c r="P1" s="0"/>
+      <c r="Q1" s="0"/>
+      <c r="R1" s="0"/>
+      <c r="S1" s="0"/>
+      <c r="T1" s="0"/>
+      <c r="U1" s="0"/>
+      <c r="V1" s="0"/>
+      <c r="W1" s="0"/>
+      <c r="X1" s="0"/>
+      <c r="Y1" s="0"/>
+      <c r="Z1" s="0"/>
+      <c r="AA1" s="0"/>
+      <c r="AB1" s="0"/>
+      <c r="AC1" s="0"/>
+      <c r="AD1" s="0"/>
+      <c r="AE1" s="0"/>
+      <c r="AF1" s="0"/>
+      <c r="AG1" s="0"/>
+      <c r="AH1" s="0"/>
+      <c r="AI1" s="0"/>
+      <c r="AJ1" s="0"/>
+      <c r="AK1" s="0"/>
+      <c r="AL1" s="0"/>
+      <c r="AM1" s="0"/>
+      <c r="AN1" s="0"/>
+      <c r="AO1" s="0"/>
+      <c r="AP1" s="0"/>
+      <c r="AQ1" s="0"/>
+      <c r="AR1" s="0"/>
+      <c r="AS1" s="0"/>
+      <c r="AT1" s="0"/>
+      <c r="AU1" s="0"/>
+      <c r="AV1" s="0"/>
+      <c r="AW1" s="0"/>
+      <c r="AX1" s="0"/>
+      <c r="AY1" s="0"/>
+      <c r="AZ1" s="0"/>
+      <c r="BA1" s="0"/>
+      <c r="BB1" s="0"/>
+      <c r="BC1" s="0"/>
+      <c r="BD1" s="0"/>
+      <c r="BE1" s="0"/>
+      <c r="BF1" s="0"/>
+      <c r="BG1" s="0"/>
+      <c r="BH1" s="0"/>
+      <c r="BI1" s="0"/>
+      <c r="BJ1" s="0"/>
+      <c r="BK1" s="0"/>
+      <c r="BL1" s="0"/>
+      <c r="BM1" s="0"/>
+      <c r="BN1" s="0"/>
+      <c r="BO1" s="0"/>
+      <c r="BP1" s="0"/>
+      <c r="BQ1" s="0"/>
+      <c r="BR1" s="0"/>
+      <c r="BS1" s="0"/>
+      <c r="BT1" s="0"/>
+      <c r="BU1" s="0"/>
+      <c r="BV1" s="0"/>
+      <c r="BW1" s="0"/>
+      <c r="BX1" s="0"/>
+      <c r="BY1" s="0"/>
+      <c r="BZ1" s="0"/>
+      <c r="CA1" s="0"/>
+      <c r="CB1" s="0"/>
+      <c r="CC1" s="0"/>
+      <c r="CD1" s="0"/>
+      <c r="CE1" s="0"/>
+      <c r="CF1" s="0"/>
+      <c r="CG1" s="0"/>
+      <c r="CH1" s="0"/>
+      <c r="CI1" s="0"/>
+      <c r="CJ1" s="0"/>
+      <c r="CK1" s="0"/>
+      <c r="CL1" s="0"/>
+      <c r="CM1" s="0"/>
+      <c r="CN1" s="0"/>
+      <c r="CO1" s="0"/>
+      <c r="CP1" s="0"/>
+      <c r="CQ1" s="0"/>
+      <c r="CR1" s="0"/>
+      <c r="CS1" s="0"/>
+      <c r="CT1" s="0"/>
+      <c r="CU1" s="0"/>
+      <c r="CV1" s="0"/>
+      <c r="CW1" s="0"/>
+      <c r="CX1" s="0"/>
+      <c r="CY1" s="0"/>
+      <c r="CZ1" s="0"/>
+      <c r="DA1" s="0"/>
+      <c r="DB1" s="0"/>
+      <c r="DC1" s="0"/>
+      <c r="DD1" s="0"/>
+      <c r="DE1" s="0"/>
+      <c r="DF1" s="0"/>
+      <c r="DG1" s="0"/>
+      <c r="DH1" s="0"/>
+      <c r="DI1" s="0"/>
+      <c r="DJ1" s="0"/>
+      <c r="DK1" s="0"/>
+      <c r="DL1" s="0"/>
+      <c r="DM1" s="0"/>
+      <c r="DN1" s="0"/>
+      <c r="DO1" s="0"/>
+      <c r="DP1" s="0"/>
+      <c r="DQ1" s="0"/>
+      <c r="DR1" s="0"/>
+      <c r="DS1" s="0"/>
+      <c r="DT1" s="0"/>
+      <c r="DU1" s="0"/>
+      <c r="DV1" s="0"/>
+      <c r="DW1" s="0"/>
+      <c r="DX1" s="0"/>
+      <c r="DY1" s="0"/>
+      <c r="DZ1" s="0"/>
+      <c r="EA1" s="0"/>
+      <c r="EB1" s="0"/>
+      <c r="EC1" s="0"/>
+      <c r="ED1" s="0"/>
+      <c r="EE1" s="0"/>
+      <c r="EF1" s="0"/>
+      <c r="EG1" s="0"/>
+      <c r="EH1" s="0"/>
+      <c r="EI1" s="0"/>
+      <c r="EJ1" s="0"/>
+      <c r="EK1" s="0"/>
+      <c r="EL1" s="0"/>
+      <c r="EM1" s="0"/>
+      <c r="EN1" s="0"/>
+      <c r="EO1" s="0"/>
+      <c r="EP1" s="0"/>
+      <c r="EQ1" s="0"/>
+      <c r="ER1" s="0"/>
+      <c r="ES1" s="0"/>
+      <c r="ET1" s="0"/>
+      <c r="EU1" s="0"/>
+      <c r="EV1" s="0"/>
+      <c r="EW1" s="0"/>
+      <c r="EX1" s="0"/>
+      <c r="EY1" s="0"/>
+      <c r="EZ1" s="0"/>
+      <c r="FA1" s="0"/>
+      <c r="FB1" s="0"/>
+      <c r="FC1" s="0"/>
+      <c r="FD1" s="0"/>
+      <c r="FE1" s="0"/>
+      <c r="FF1" s="0"/>
+      <c r="FG1" s="0"/>
+      <c r="FH1" s="0"/>
+      <c r="FI1" s="0"/>
+      <c r="FJ1" s="0"/>
+      <c r="FK1" s="0"/>
+      <c r="FL1" s="0"/>
+      <c r="FM1" s="0"/>
+      <c r="FN1" s="0"/>
+      <c r="FO1" s="0"/>
+      <c r="FP1" s="0"/>
+      <c r="FQ1" s="0"/>
+      <c r="FR1" s="0"/>
+      <c r="FS1" s="0"/>
+      <c r="FT1" s="0"/>
+      <c r="FU1" s="0"/>
+      <c r="FV1" s="0"/>
+      <c r="FW1" s="0"/>
+      <c r="FX1" s="0"/>
+      <c r="FY1" s="0"/>
+      <c r="FZ1" s="0"/>
+      <c r="GA1" s="0"/>
+      <c r="GB1" s="0"/>
+      <c r="GC1" s="0"/>
+      <c r="GD1" s="0"/>
+      <c r="GE1" s="0"/>
+      <c r="GF1" s="0"/>
+      <c r="GG1" s="0"/>
+      <c r="GH1" s="0"/>
+      <c r="GI1" s="0"/>
+      <c r="GJ1" s="0"/>
+      <c r="GK1" s="0"/>
+      <c r="GL1" s="0"/>
+      <c r="GM1" s="0"/>
+      <c r="GN1" s="0"/>
+      <c r="GO1" s="0"/>
+      <c r="GP1" s="0"/>
+      <c r="GQ1" s="0"/>
+      <c r="GR1" s="0"/>
+      <c r="GS1" s="0"/>
+      <c r="GT1" s="0"/>
+      <c r="GU1" s="0"/>
+      <c r="GV1" s="0"/>
+      <c r="GW1" s="0"/>
+      <c r="GX1" s="0"/>
+      <c r="GY1" s="0"/>
+      <c r="GZ1" s="0"/>
+      <c r="HA1" s="0"/>
+      <c r="HB1" s="0"/>
+      <c r="HC1" s="0"/>
+      <c r="HD1" s="0"/>
+      <c r="HE1" s="0"/>
+      <c r="HF1" s="0"/>
+      <c r="HG1" s="0"/>
+      <c r="HH1" s="0"/>
+      <c r="HI1" s="0"/>
+      <c r="HJ1" s="0"/>
+      <c r="HK1" s="0"/>
+      <c r="HL1" s="0"/>
+      <c r="HM1" s="0"/>
+      <c r="HN1" s="0"/>
+      <c r="HO1" s="0"/>
+      <c r="HP1" s="0"/>
+      <c r="HQ1" s="0"/>
+      <c r="HR1" s="0"/>
+      <c r="HS1" s="0"/>
+      <c r="HT1" s="0"/>
+      <c r="HU1" s="0"/>
+      <c r="HV1" s="0"/>
+      <c r="HW1" s="0"/>
+      <c r="HX1" s="0"/>
+      <c r="HY1" s="0"/>
+      <c r="HZ1" s="0"/>
+      <c r="IA1" s="0"/>
+      <c r="IB1" s="0"/>
+      <c r="IC1" s="0"/>
+      <c r="ID1" s="0"/>
+      <c r="IE1" s="0"/>
+      <c r="IF1" s="0"/>
+      <c r="IG1" s="0"/>
+      <c r="IH1" s="0"/>
+      <c r="II1" s="0"/>
+      <c r="IJ1" s="0"/>
+      <c r="IK1" s="0"/>
+      <c r="IL1" s="0"/>
+      <c r="IM1" s="0"/>
+      <c r="IN1" s="0"/>
+      <c r="IO1" s="0"/>
+      <c r="IP1" s="0"/>
+      <c r="IQ1" s="0"/>
+      <c r="IR1" s="0"/>
+      <c r="IS1" s="0"/>
+      <c r="IT1" s="0"/>
+      <c r="IU1" s="0"/>
+      <c r="IV1" s="0"/>
+      <c r="IW1" s="0"/>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:257" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -901,8 +1457,260 @@
       <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="F2" s="0"/>
+      <c r="G2" s="0"/>
+      <c r="H2" s="0"/>
+      <c r="I2" s="0"/>
+      <c r="J2" s="0"/>
+      <c r="K2" s="0"/>
+      <c r="L2" s="0"/>
+      <c r="M2" s="0"/>
+      <c r="N2" s="0"/>
+      <c r="O2" s="0"/>
+      <c r="P2" s="0"/>
+      <c r="Q2" s="0"/>
+      <c r="R2" s="0"/>
+      <c r="S2" s="0"/>
+      <c r="T2" s="0"/>
+      <c r="U2" s="0"/>
+      <c r="V2" s="0"/>
+      <c r="W2" s="0"/>
+      <c r="X2" s="0"/>
+      <c r="Y2" s="0"/>
+      <c r="Z2" s="0"/>
+      <c r="AA2" s="0"/>
+      <c r="AB2" s="0"/>
+      <c r="AC2" s="0"/>
+      <c r="AD2" s="0"/>
+      <c r="AE2" s="0"/>
+      <c r="AF2" s="0"/>
+      <c r="AG2" s="0"/>
+      <c r="AH2" s="0"/>
+      <c r="AI2" s="0"/>
+      <c r="AJ2" s="0"/>
+      <c r="AK2" s="0"/>
+      <c r="AL2" s="0"/>
+      <c r="AM2" s="0"/>
+      <c r="AN2" s="0"/>
+      <c r="AO2" s="0"/>
+      <c r="AP2" s="0"/>
+      <c r="AQ2" s="0"/>
+      <c r="AR2" s="0"/>
+      <c r="AS2" s="0"/>
+      <c r="AT2" s="0"/>
+      <c r="AU2" s="0"/>
+      <c r="AV2" s="0"/>
+      <c r="AW2" s="0"/>
+      <c r="AX2" s="0"/>
+      <c r="AY2" s="0"/>
+      <c r="AZ2" s="0"/>
+      <c r="BA2" s="0"/>
+      <c r="BB2" s="0"/>
+      <c r="BC2" s="0"/>
+      <c r="BD2" s="0"/>
+      <c r="BE2" s="0"/>
+      <c r="BF2" s="0"/>
+      <c r="BG2" s="0"/>
+      <c r="BH2" s="0"/>
+      <c r="BI2" s="0"/>
+      <c r="BJ2" s="0"/>
+      <c r="BK2" s="0"/>
+      <c r="BL2" s="0"/>
+      <c r="BM2" s="0"/>
+      <c r="BN2" s="0"/>
+      <c r="BO2" s="0"/>
+      <c r="BP2" s="0"/>
+      <c r="BQ2" s="0"/>
+      <c r="BR2" s="0"/>
+      <c r="BS2" s="0"/>
+      <c r="BT2" s="0"/>
+      <c r="BU2" s="0"/>
+      <c r="BV2" s="0"/>
+      <c r="BW2" s="0"/>
+      <c r="BX2" s="0"/>
+      <c r="BY2" s="0"/>
+      <c r="BZ2" s="0"/>
+      <c r="CA2" s="0"/>
+      <c r="CB2" s="0"/>
+      <c r="CC2" s="0"/>
+      <c r="CD2" s="0"/>
+      <c r="CE2" s="0"/>
+      <c r="CF2" s="0"/>
+      <c r="CG2" s="0"/>
+      <c r="CH2" s="0"/>
+      <c r="CI2" s="0"/>
+      <c r="CJ2" s="0"/>
+      <c r="CK2" s="0"/>
+      <c r="CL2" s="0"/>
+      <c r="CM2" s="0"/>
+      <c r="CN2" s="0"/>
+      <c r="CO2" s="0"/>
+      <c r="CP2" s="0"/>
+      <c r="CQ2" s="0"/>
+      <c r="CR2" s="0"/>
+      <c r="CS2" s="0"/>
+      <c r="CT2" s="0"/>
+      <c r="CU2" s="0"/>
+      <c r="CV2" s="0"/>
+      <c r="CW2" s="0"/>
+      <c r="CX2" s="0"/>
+      <c r="CY2" s="0"/>
+      <c r="CZ2" s="0"/>
+      <c r="DA2" s="0"/>
+      <c r="DB2" s="0"/>
+      <c r="DC2" s="0"/>
+      <c r="DD2" s="0"/>
+      <c r="DE2" s="0"/>
+      <c r="DF2" s="0"/>
+      <c r="DG2" s="0"/>
+      <c r="DH2" s="0"/>
+      <c r="DI2" s="0"/>
+      <c r="DJ2" s="0"/>
+      <c r="DK2" s="0"/>
+      <c r="DL2" s="0"/>
+      <c r="DM2" s="0"/>
+      <c r="DN2" s="0"/>
+      <c r="DO2" s="0"/>
+      <c r="DP2" s="0"/>
+      <c r="DQ2" s="0"/>
+      <c r="DR2" s="0"/>
+      <c r="DS2" s="0"/>
+      <c r="DT2" s="0"/>
+      <c r="DU2" s="0"/>
+      <c r="DV2" s="0"/>
+      <c r="DW2" s="0"/>
+      <c r="DX2" s="0"/>
+      <c r="DY2" s="0"/>
+      <c r="DZ2" s="0"/>
+      <c r="EA2" s="0"/>
+      <c r="EB2" s="0"/>
+      <c r="EC2" s="0"/>
+      <c r="ED2" s="0"/>
+      <c r="EE2" s="0"/>
+      <c r="EF2" s="0"/>
+      <c r="EG2" s="0"/>
+      <c r="EH2" s="0"/>
+      <c r="EI2" s="0"/>
+      <c r="EJ2" s="0"/>
+      <c r="EK2" s="0"/>
+      <c r="EL2" s="0"/>
+      <c r="EM2" s="0"/>
+      <c r="EN2" s="0"/>
+      <c r="EO2" s="0"/>
+      <c r="EP2" s="0"/>
+      <c r="EQ2" s="0"/>
+      <c r="ER2" s="0"/>
+      <c r="ES2" s="0"/>
+      <c r="ET2" s="0"/>
+      <c r="EU2" s="0"/>
+      <c r="EV2" s="0"/>
+      <c r="EW2" s="0"/>
+      <c r="EX2" s="0"/>
+      <c r="EY2" s="0"/>
+      <c r="EZ2" s="0"/>
+      <c r="FA2" s="0"/>
+      <c r="FB2" s="0"/>
+      <c r="FC2" s="0"/>
+      <c r="FD2" s="0"/>
+      <c r="FE2" s="0"/>
+      <c r="FF2" s="0"/>
+      <c r="FG2" s="0"/>
+      <c r="FH2" s="0"/>
+      <c r="FI2" s="0"/>
+      <c r="FJ2" s="0"/>
+      <c r="FK2" s="0"/>
+      <c r="FL2" s="0"/>
+      <c r="FM2" s="0"/>
+      <c r="FN2" s="0"/>
+      <c r="FO2" s="0"/>
+      <c r="FP2" s="0"/>
+      <c r="FQ2" s="0"/>
+      <c r="FR2" s="0"/>
+      <c r="FS2" s="0"/>
+      <c r="FT2" s="0"/>
+      <c r="FU2" s="0"/>
+      <c r="FV2" s="0"/>
+      <c r="FW2" s="0"/>
+      <c r="FX2" s="0"/>
+      <c r="FY2" s="0"/>
+      <c r="FZ2" s="0"/>
+      <c r="GA2" s="0"/>
+      <c r="GB2" s="0"/>
+      <c r="GC2" s="0"/>
+      <c r="GD2" s="0"/>
+      <c r="GE2" s="0"/>
+      <c r="GF2" s="0"/>
+      <c r="GG2" s="0"/>
+      <c r="GH2" s="0"/>
+      <c r="GI2" s="0"/>
+      <c r="GJ2" s="0"/>
+      <c r="GK2" s="0"/>
+      <c r="GL2" s="0"/>
+      <c r="GM2" s="0"/>
+      <c r="GN2" s="0"/>
+      <c r="GO2" s="0"/>
+      <c r="GP2" s="0"/>
+      <c r="GQ2" s="0"/>
+      <c r="GR2" s="0"/>
+      <c r="GS2" s="0"/>
+      <c r="GT2" s="0"/>
+      <c r="GU2" s="0"/>
+      <c r="GV2" s="0"/>
+      <c r="GW2" s="0"/>
+      <c r="GX2" s="0"/>
+      <c r="GY2" s="0"/>
+      <c r="GZ2" s="0"/>
+      <c r="HA2" s="0"/>
+      <c r="HB2" s="0"/>
+      <c r="HC2" s="0"/>
+      <c r="HD2" s="0"/>
+      <c r="HE2" s="0"/>
+      <c r="HF2" s="0"/>
+      <c r="HG2" s="0"/>
+      <c r="HH2" s="0"/>
+      <c r="HI2" s="0"/>
+      <c r="HJ2" s="0"/>
+      <c r="HK2" s="0"/>
+      <c r="HL2" s="0"/>
+      <c r="HM2" s="0"/>
+      <c r="HN2" s="0"/>
+      <c r="HO2" s="0"/>
+      <c r="HP2" s="0"/>
+      <c r="HQ2" s="0"/>
+      <c r="HR2" s="0"/>
+      <c r="HS2" s="0"/>
+      <c r="HT2" s="0"/>
+      <c r="HU2" s="0"/>
+      <c r="HV2" s="0"/>
+      <c r="HW2" s="0"/>
+      <c r="HX2" s="0"/>
+      <c r="HY2" s="0"/>
+      <c r="HZ2" s="0"/>
+      <c r="IA2" s="0"/>
+      <c r="IB2" s="0"/>
+      <c r="IC2" s="0"/>
+      <c r="ID2" s="0"/>
+      <c r="IE2" s="0"/>
+      <c r="IF2" s="0"/>
+      <c r="IG2" s="0"/>
+      <c r="IH2" s="0"/>
+      <c r="II2" s="0"/>
+      <c r="IJ2" s="0"/>
+      <c r="IK2" s="0"/>
+      <c r="IL2" s="0"/>
+      <c r="IM2" s="0"/>
+      <c r="IN2" s="0"/>
+      <c r="IO2" s="0"/>
+      <c r="IP2" s="0"/>
+      <c r="IQ2" s="0"/>
+      <c r="IR2" s="0"/>
+      <c r="IS2" s="0"/>
+      <c r="IT2" s="0"/>
+      <c r="IU2" s="0"/>
+      <c r="IV2" s="0"/>
+      <c r="IW2" s="0"/>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:257" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -910,8 +1718,260 @@
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
+      <c r="F3" s="0"/>
+      <c r="G3" s="0"/>
+      <c r="H3" s="0"/>
+      <c r="I3" s="0"/>
+      <c r="J3" s="0"/>
+      <c r="K3" s="0"/>
+      <c r="L3" s="0"/>
+      <c r="M3" s="0"/>
+      <c r="N3" s="0"/>
+      <c r="O3" s="0"/>
+      <c r="P3" s="0"/>
+      <c r="Q3" s="0"/>
+      <c r="R3" s="0"/>
+      <c r="S3" s="0"/>
+      <c r="T3" s="0"/>
+      <c r="U3" s="0"/>
+      <c r="V3" s="0"/>
+      <c r="W3" s="0"/>
+      <c r="X3" s="0"/>
+      <c r="Y3" s="0"/>
+      <c r="Z3" s="0"/>
+      <c r="AA3" s="0"/>
+      <c r="AB3" s="0"/>
+      <c r="AC3" s="0"/>
+      <c r="AD3" s="0"/>
+      <c r="AE3" s="0"/>
+      <c r="AF3" s="0"/>
+      <c r="AG3" s="0"/>
+      <c r="AH3" s="0"/>
+      <c r="AI3" s="0"/>
+      <c r="AJ3" s="0"/>
+      <c r="AK3" s="0"/>
+      <c r="AL3" s="0"/>
+      <c r="AM3" s="0"/>
+      <c r="AN3" s="0"/>
+      <c r="AO3" s="0"/>
+      <c r="AP3" s="0"/>
+      <c r="AQ3" s="0"/>
+      <c r="AR3" s="0"/>
+      <c r="AS3" s="0"/>
+      <c r="AT3" s="0"/>
+      <c r="AU3" s="0"/>
+      <c r="AV3" s="0"/>
+      <c r="AW3" s="0"/>
+      <c r="AX3" s="0"/>
+      <c r="AY3" s="0"/>
+      <c r="AZ3" s="0"/>
+      <c r="BA3" s="0"/>
+      <c r="BB3" s="0"/>
+      <c r="BC3" s="0"/>
+      <c r="BD3" s="0"/>
+      <c r="BE3" s="0"/>
+      <c r="BF3" s="0"/>
+      <c r="BG3" s="0"/>
+      <c r="BH3" s="0"/>
+      <c r="BI3" s="0"/>
+      <c r="BJ3" s="0"/>
+      <c r="BK3" s="0"/>
+      <c r="BL3" s="0"/>
+      <c r="BM3" s="0"/>
+      <c r="BN3" s="0"/>
+      <c r="BO3" s="0"/>
+      <c r="BP3" s="0"/>
+      <c r="BQ3" s="0"/>
+      <c r="BR3" s="0"/>
+      <c r="BS3" s="0"/>
+      <c r="BT3" s="0"/>
+      <c r="BU3" s="0"/>
+      <c r="BV3" s="0"/>
+      <c r="BW3" s="0"/>
+      <c r="BX3" s="0"/>
+      <c r="BY3" s="0"/>
+      <c r="BZ3" s="0"/>
+      <c r="CA3" s="0"/>
+      <c r="CB3" s="0"/>
+      <c r="CC3" s="0"/>
+      <c r="CD3" s="0"/>
+      <c r="CE3" s="0"/>
+      <c r="CF3" s="0"/>
+      <c r="CG3" s="0"/>
+      <c r="CH3" s="0"/>
+      <c r="CI3" s="0"/>
+      <c r="CJ3" s="0"/>
+      <c r="CK3" s="0"/>
+      <c r="CL3" s="0"/>
+      <c r="CM3" s="0"/>
+      <c r="CN3" s="0"/>
+      <c r="CO3" s="0"/>
+      <c r="CP3" s="0"/>
+      <c r="CQ3" s="0"/>
+      <c r="CR3" s="0"/>
+      <c r="CS3" s="0"/>
+      <c r="CT3" s="0"/>
+      <c r="CU3" s="0"/>
+      <c r="CV3" s="0"/>
+      <c r="CW3" s="0"/>
+      <c r="CX3" s="0"/>
+      <c r="CY3" s="0"/>
+      <c r="CZ3" s="0"/>
+      <c r="DA3" s="0"/>
+      <c r="DB3" s="0"/>
+      <c r="DC3" s="0"/>
+      <c r="DD3" s="0"/>
+      <c r="DE3" s="0"/>
+      <c r="DF3" s="0"/>
+      <c r="DG3" s="0"/>
+      <c r="DH3" s="0"/>
+      <c r="DI3" s="0"/>
+      <c r="DJ3" s="0"/>
+      <c r="DK3" s="0"/>
+      <c r="DL3" s="0"/>
+      <c r="DM3" s="0"/>
+      <c r="DN3" s="0"/>
+      <c r="DO3" s="0"/>
+      <c r="DP3" s="0"/>
+      <c r="DQ3" s="0"/>
+      <c r="DR3" s="0"/>
+      <c r="DS3" s="0"/>
+      <c r="DT3" s="0"/>
+      <c r="DU3" s="0"/>
+      <c r="DV3" s="0"/>
+      <c r="DW3" s="0"/>
+      <c r="DX3" s="0"/>
+      <c r="DY3" s="0"/>
+      <c r="DZ3" s="0"/>
+      <c r="EA3" s="0"/>
+      <c r="EB3" s="0"/>
+      <c r="EC3" s="0"/>
+      <c r="ED3" s="0"/>
+      <c r="EE3" s="0"/>
+      <c r="EF3" s="0"/>
+      <c r="EG3" s="0"/>
+      <c r="EH3" s="0"/>
+      <c r="EI3" s="0"/>
+      <c r="EJ3" s="0"/>
+      <c r="EK3" s="0"/>
+      <c r="EL3" s="0"/>
+      <c r="EM3" s="0"/>
+      <c r="EN3" s="0"/>
+      <c r="EO3" s="0"/>
+      <c r="EP3" s="0"/>
+      <c r="EQ3" s="0"/>
+      <c r="ER3" s="0"/>
+      <c r="ES3" s="0"/>
+      <c r="ET3" s="0"/>
+      <c r="EU3" s="0"/>
+      <c r="EV3" s="0"/>
+      <c r="EW3" s="0"/>
+      <c r="EX3" s="0"/>
+      <c r="EY3" s="0"/>
+      <c r="EZ3" s="0"/>
+      <c r="FA3" s="0"/>
+      <c r="FB3" s="0"/>
+      <c r="FC3" s="0"/>
+      <c r="FD3" s="0"/>
+      <c r="FE3" s="0"/>
+      <c r="FF3" s="0"/>
+      <c r="FG3" s="0"/>
+      <c r="FH3" s="0"/>
+      <c r="FI3" s="0"/>
+      <c r="FJ3" s="0"/>
+      <c r="FK3" s="0"/>
+      <c r="FL3" s="0"/>
+      <c r="FM3" s="0"/>
+      <c r="FN3" s="0"/>
+      <c r="FO3" s="0"/>
+      <c r="FP3" s="0"/>
+      <c r="FQ3" s="0"/>
+      <c r="FR3" s="0"/>
+      <c r="FS3" s="0"/>
+      <c r="FT3" s="0"/>
+      <c r="FU3" s="0"/>
+      <c r="FV3" s="0"/>
+      <c r="FW3" s="0"/>
+      <c r="FX3" s="0"/>
+      <c r="FY3" s="0"/>
+      <c r="FZ3" s="0"/>
+      <c r="GA3" s="0"/>
+      <c r="GB3" s="0"/>
+      <c r="GC3" s="0"/>
+      <c r="GD3" s="0"/>
+      <c r="GE3" s="0"/>
+      <c r="GF3" s="0"/>
+      <c r="GG3" s="0"/>
+      <c r="GH3" s="0"/>
+      <c r="GI3" s="0"/>
+      <c r="GJ3" s="0"/>
+      <c r="GK3" s="0"/>
+      <c r="GL3" s="0"/>
+      <c r="GM3" s="0"/>
+      <c r="GN3" s="0"/>
+      <c r="GO3" s="0"/>
+      <c r="GP3" s="0"/>
+      <c r="GQ3" s="0"/>
+      <c r="GR3" s="0"/>
+      <c r="GS3" s="0"/>
+      <c r="GT3" s="0"/>
+      <c r="GU3" s="0"/>
+      <c r="GV3" s="0"/>
+      <c r="GW3" s="0"/>
+      <c r="GX3" s="0"/>
+      <c r="GY3" s="0"/>
+      <c r="GZ3" s="0"/>
+      <c r="HA3" s="0"/>
+      <c r="HB3" s="0"/>
+      <c r="HC3" s="0"/>
+      <c r="HD3" s="0"/>
+      <c r="HE3" s="0"/>
+      <c r="HF3" s="0"/>
+      <c r="HG3" s="0"/>
+      <c r="HH3" s="0"/>
+      <c r="HI3" s="0"/>
+      <c r="HJ3" s="0"/>
+      <c r="HK3" s="0"/>
+      <c r="HL3" s="0"/>
+      <c r="HM3" s="0"/>
+      <c r="HN3" s="0"/>
+      <c r="HO3" s="0"/>
+      <c r="HP3" s="0"/>
+      <c r="HQ3" s="0"/>
+      <c r="HR3" s="0"/>
+      <c r="HS3" s="0"/>
+      <c r="HT3" s="0"/>
+      <c r="HU3" s="0"/>
+      <c r="HV3" s="0"/>
+      <c r="HW3" s="0"/>
+      <c r="HX3" s="0"/>
+      <c r="HY3" s="0"/>
+      <c r="HZ3" s="0"/>
+      <c r="IA3" s="0"/>
+      <c r="IB3" s="0"/>
+      <c r="IC3" s="0"/>
+      <c r="ID3" s="0"/>
+      <c r="IE3" s="0"/>
+      <c r="IF3" s="0"/>
+      <c r="IG3" s="0"/>
+      <c r="IH3" s="0"/>
+      <c r="II3" s="0"/>
+      <c r="IJ3" s="0"/>
+      <c r="IK3" s="0"/>
+      <c r="IL3" s="0"/>
+      <c r="IM3" s="0"/>
+      <c r="IN3" s="0"/>
+      <c r="IO3" s="0"/>
+      <c r="IP3" s="0"/>
+      <c r="IQ3" s="0"/>
+      <c r="IR3" s="0"/>
+      <c r="IS3" s="0"/>
+      <c r="IT3" s="0"/>
+      <c r="IU3" s="0"/>
+      <c r="IV3" s="0"/>
+      <c r="IW3" s="0"/>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:257" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
@@ -921,8 +1981,260 @@
       <c r="E4" s="7" t="s">
         <v>10</v>
       </c>
+      <c r="F4" s="0"/>
+      <c r="G4" s="0"/>
+      <c r="H4" s="0"/>
+      <c r="I4" s="0"/>
+      <c r="J4" s="0"/>
+      <c r="K4" s="0"/>
+      <c r="L4" s="0"/>
+      <c r="M4" s="0"/>
+      <c r="N4" s="0"/>
+      <c r="O4" s="0"/>
+      <c r="P4" s="0"/>
+      <c r="Q4" s="0"/>
+      <c r="R4" s="0"/>
+      <c r="S4" s="0"/>
+      <c r="T4" s="0"/>
+      <c r="U4" s="0"/>
+      <c r="V4" s="0"/>
+      <c r="W4" s="0"/>
+      <c r="X4" s="0"/>
+      <c r="Y4" s="0"/>
+      <c r="Z4" s="0"/>
+      <c r="AA4" s="0"/>
+      <c r="AB4" s="0"/>
+      <c r="AC4" s="0"/>
+      <c r="AD4" s="0"/>
+      <c r="AE4" s="0"/>
+      <c r="AF4" s="0"/>
+      <c r="AG4" s="0"/>
+      <c r="AH4" s="0"/>
+      <c r="AI4" s="0"/>
+      <c r="AJ4" s="0"/>
+      <c r="AK4" s="0"/>
+      <c r="AL4" s="0"/>
+      <c r="AM4" s="0"/>
+      <c r="AN4" s="0"/>
+      <c r="AO4" s="0"/>
+      <c r="AP4" s="0"/>
+      <c r="AQ4" s="0"/>
+      <c r="AR4" s="0"/>
+      <c r="AS4" s="0"/>
+      <c r="AT4" s="0"/>
+      <c r="AU4" s="0"/>
+      <c r="AV4" s="0"/>
+      <c r="AW4" s="0"/>
+      <c r="AX4" s="0"/>
+      <c r="AY4" s="0"/>
+      <c r="AZ4" s="0"/>
+      <c r="BA4" s="0"/>
+      <c r="BB4" s="0"/>
+      <c r="BC4" s="0"/>
+      <c r="BD4" s="0"/>
+      <c r="BE4" s="0"/>
+      <c r="BF4" s="0"/>
+      <c r="BG4" s="0"/>
+      <c r="BH4" s="0"/>
+      <c r="BI4" s="0"/>
+      <c r="BJ4" s="0"/>
+      <c r="BK4" s="0"/>
+      <c r="BL4" s="0"/>
+      <c r="BM4" s="0"/>
+      <c r="BN4" s="0"/>
+      <c r="BO4" s="0"/>
+      <c r="BP4" s="0"/>
+      <c r="BQ4" s="0"/>
+      <c r="BR4" s="0"/>
+      <c r="BS4" s="0"/>
+      <c r="BT4" s="0"/>
+      <c r="BU4" s="0"/>
+      <c r="BV4" s="0"/>
+      <c r="BW4" s="0"/>
+      <c r="BX4" s="0"/>
+      <c r="BY4" s="0"/>
+      <c r="BZ4" s="0"/>
+      <c r="CA4" s="0"/>
+      <c r="CB4" s="0"/>
+      <c r="CC4" s="0"/>
+      <c r="CD4" s="0"/>
+      <c r="CE4" s="0"/>
+      <c r="CF4" s="0"/>
+      <c r="CG4" s="0"/>
+      <c r="CH4" s="0"/>
+      <c r="CI4" s="0"/>
+      <c r="CJ4" s="0"/>
+      <c r="CK4" s="0"/>
+      <c r="CL4" s="0"/>
+      <c r="CM4" s="0"/>
+      <c r="CN4" s="0"/>
+      <c r="CO4" s="0"/>
+      <c r="CP4" s="0"/>
+      <c r="CQ4" s="0"/>
+      <c r="CR4" s="0"/>
+      <c r="CS4" s="0"/>
+      <c r="CT4" s="0"/>
+      <c r="CU4" s="0"/>
+      <c r="CV4" s="0"/>
+      <c r="CW4" s="0"/>
+      <c r="CX4" s="0"/>
+      <c r="CY4" s="0"/>
+      <c r="CZ4" s="0"/>
+      <c r="DA4" s="0"/>
+      <c r="DB4" s="0"/>
+      <c r="DC4" s="0"/>
+      <c r="DD4" s="0"/>
+      <c r="DE4" s="0"/>
+      <c r="DF4" s="0"/>
+      <c r="DG4" s="0"/>
+      <c r="DH4" s="0"/>
+      <c r="DI4" s="0"/>
+      <c r="DJ4" s="0"/>
+      <c r="DK4" s="0"/>
+      <c r="DL4" s="0"/>
+      <c r="DM4" s="0"/>
+      <c r="DN4" s="0"/>
+      <c r="DO4" s="0"/>
+      <c r="DP4" s="0"/>
+      <c r="DQ4" s="0"/>
+      <c r="DR4" s="0"/>
+      <c r="DS4" s="0"/>
+      <c r="DT4" s="0"/>
+      <c r="DU4" s="0"/>
+      <c r="DV4" s="0"/>
+      <c r="DW4" s="0"/>
+      <c r="DX4" s="0"/>
+      <c r="DY4" s="0"/>
+      <c r="DZ4" s="0"/>
+      <c r="EA4" s="0"/>
+      <c r="EB4" s="0"/>
+      <c r="EC4" s="0"/>
+      <c r="ED4" s="0"/>
+      <c r="EE4" s="0"/>
+      <c r="EF4" s="0"/>
+      <c r="EG4" s="0"/>
+      <c r="EH4" s="0"/>
+      <c r="EI4" s="0"/>
+      <c r="EJ4" s="0"/>
+      <c r="EK4" s="0"/>
+      <c r="EL4" s="0"/>
+      <c r="EM4" s="0"/>
+      <c r="EN4" s="0"/>
+      <c r="EO4" s="0"/>
+      <c r="EP4" s="0"/>
+      <c r="EQ4" s="0"/>
+      <c r="ER4" s="0"/>
+      <c r="ES4" s="0"/>
+      <c r="ET4" s="0"/>
+      <c r="EU4" s="0"/>
+      <c r="EV4" s="0"/>
+      <c r="EW4" s="0"/>
+      <c r="EX4" s="0"/>
+      <c r="EY4" s="0"/>
+      <c r="EZ4" s="0"/>
+      <c r="FA4" s="0"/>
+      <c r="FB4" s="0"/>
+      <c r="FC4" s="0"/>
+      <c r="FD4" s="0"/>
+      <c r="FE4" s="0"/>
+      <c r="FF4" s="0"/>
+      <c r="FG4" s="0"/>
+      <c r="FH4" s="0"/>
+      <c r="FI4" s="0"/>
+      <c r="FJ4" s="0"/>
+      <c r="FK4" s="0"/>
+      <c r="FL4" s="0"/>
+      <c r="FM4" s="0"/>
+      <c r="FN4" s="0"/>
+      <c r="FO4" s="0"/>
+      <c r="FP4" s="0"/>
+      <c r="FQ4" s="0"/>
+      <c r="FR4" s="0"/>
+      <c r="FS4" s="0"/>
+      <c r="FT4" s="0"/>
+      <c r="FU4" s="0"/>
+      <c r="FV4" s="0"/>
+      <c r="FW4" s="0"/>
+      <c r="FX4" s="0"/>
+      <c r="FY4" s="0"/>
+      <c r="FZ4" s="0"/>
+      <c r="GA4" s="0"/>
+      <c r="GB4" s="0"/>
+      <c r="GC4" s="0"/>
+      <c r="GD4" s="0"/>
+      <c r="GE4" s="0"/>
+      <c r="GF4" s="0"/>
+      <c r="GG4" s="0"/>
+      <c r="GH4" s="0"/>
+      <c r="GI4" s="0"/>
+      <c r="GJ4" s="0"/>
+      <c r="GK4" s="0"/>
+      <c r="GL4" s="0"/>
+      <c r="GM4" s="0"/>
+      <c r="GN4" s="0"/>
+      <c r="GO4" s="0"/>
+      <c r="GP4" s="0"/>
+      <c r="GQ4" s="0"/>
+      <c r="GR4" s="0"/>
+      <c r="GS4" s="0"/>
+      <c r="GT4" s="0"/>
+      <c r="GU4" s="0"/>
+      <c r="GV4" s="0"/>
+      <c r="GW4" s="0"/>
+      <c r="GX4" s="0"/>
+      <c r="GY4" s="0"/>
+      <c r="GZ4" s="0"/>
+      <c r="HA4" s="0"/>
+      <c r="HB4" s="0"/>
+      <c r="HC4" s="0"/>
+      <c r="HD4" s="0"/>
+      <c r="HE4" s="0"/>
+      <c r="HF4" s="0"/>
+      <c r="HG4" s="0"/>
+      <c r="HH4" s="0"/>
+      <c r="HI4" s="0"/>
+      <c r="HJ4" s="0"/>
+      <c r="HK4" s="0"/>
+      <c r="HL4" s="0"/>
+      <c r="HM4" s="0"/>
+      <c r="HN4" s="0"/>
+      <c r="HO4" s="0"/>
+      <c r="HP4" s="0"/>
+      <c r="HQ4" s="0"/>
+      <c r="HR4" s="0"/>
+      <c r="HS4" s="0"/>
+      <c r="HT4" s="0"/>
+      <c r="HU4" s="0"/>
+      <c r="HV4" s="0"/>
+      <c r="HW4" s="0"/>
+      <c r="HX4" s="0"/>
+      <c r="HY4" s="0"/>
+      <c r="HZ4" s="0"/>
+      <c r="IA4" s="0"/>
+      <c r="IB4" s="0"/>
+      <c r="IC4" s="0"/>
+      <c r="ID4" s="0"/>
+      <c r="IE4" s="0"/>
+      <c r="IF4" s="0"/>
+      <c r="IG4" s="0"/>
+      <c r="IH4" s="0"/>
+      <c r="II4" s="0"/>
+      <c r="IJ4" s="0"/>
+      <c r="IK4" s="0"/>
+      <c r="IL4" s="0"/>
+      <c r="IM4" s="0"/>
+      <c r="IN4" s="0"/>
+      <c r="IO4" s="0"/>
+      <c r="IP4" s="0"/>
+      <c r="IQ4" s="0"/>
+      <c r="IR4" s="0"/>
+      <c r="IS4" s="0"/>
+      <c r="IT4" s="0"/>
+      <c r="IU4" s="0"/>
+      <c r="IV4" s="0"/>
+      <c r="IW4" s="0"/>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:257" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
         <v>11</v>
       </c>
@@ -933,8 +2245,260 @@
         <f aca="false">L18</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="F5" s="0"/>
+      <c r="G5" s="0"/>
+      <c r="H5" s="0"/>
+      <c r="I5" s="0"/>
+      <c r="J5" s="0"/>
+      <c r="K5" s="0"/>
+      <c r="L5" s="0"/>
+      <c r="M5" s="0"/>
+      <c r="N5" s="0"/>
+      <c r="O5" s="0"/>
+      <c r="P5" s="0"/>
+      <c r="Q5" s="0"/>
+      <c r="R5" s="0"/>
+      <c r="S5" s="0"/>
+      <c r="T5" s="0"/>
+      <c r="U5" s="0"/>
+      <c r="V5" s="0"/>
+      <c r="W5" s="0"/>
+      <c r="X5" s="0"/>
+      <c r="Y5" s="0"/>
+      <c r="Z5" s="0"/>
+      <c r="AA5" s="0"/>
+      <c r="AB5" s="0"/>
+      <c r="AC5" s="0"/>
+      <c r="AD5" s="0"/>
+      <c r="AE5" s="0"/>
+      <c r="AF5" s="0"/>
+      <c r="AG5" s="0"/>
+      <c r="AH5" s="0"/>
+      <c r="AI5" s="0"/>
+      <c r="AJ5" s="0"/>
+      <c r="AK5" s="0"/>
+      <c r="AL5" s="0"/>
+      <c r="AM5" s="0"/>
+      <c r="AN5" s="0"/>
+      <c r="AO5" s="0"/>
+      <c r="AP5" s="0"/>
+      <c r="AQ5" s="0"/>
+      <c r="AR5" s="0"/>
+      <c r="AS5" s="0"/>
+      <c r="AT5" s="0"/>
+      <c r="AU5" s="0"/>
+      <c r="AV5" s="0"/>
+      <c r="AW5" s="0"/>
+      <c r="AX5" s="0"/>
+      <c r="AY5" s="0"/>
+      <c r="AZ5" s="0"/>
+      <c r="BA5" s="0"/>
+      <c r="BB5" s="0"/>
+      <c r="BC5" s="0"/>
+      <c r="BD5" s="0"/>
+      <c r="BE5" s="0"/>
+      <c r="BF5" s="0"/>
+      <c r="BG5" s="0"/>
+      <c r="BH5" s="0"/>
+      <c r="BI5" s="0"/>
+      <c r="BJ5" s="0"/>
+      <c r="BK5" s="0"/>
+      <c r="BL5" s="0"/>
+      <c r="BM5" s="0"/>
+      <c r="BN5" s="0"/>
+      <c r="BO5" s="0"/>
+      <c r="BP5" s="0"/>
+      <c r="BQ5" s="0"/>
+      <c r="BR5" s="0"/>
+      <c r="BS5" s="0"/>
+      <c r="BT5" s="0"/>
+      <c r="BU5" s="0"/>
+      <c r="BV5" s="0"/>
+      <c r="BW5" s="0"/>
+      <c r="BX5" s="0"/>
+      <c r="BY5" s="0"/>
+      <c r="BZ5" s="0"/>
+      <c r="CA5" s="0"/>
+      <c r="CB5" s="0"/>
+      <c r="CC5" s="0"/>
+      <c r="CD5" s="0"/>
+      <c r="CE5" s="0"/>
+      <c r="CF5" s="0"/>
+      <c r="CG5" s="0"/>
+      <c r="CH5" s="0"/>
+      <c r="CI5" s="0"/>
+      <c r="CJ5" s="0"/>
+      <c r="CK5" s="0"/>
+      <c r="CL5" s="0"/>
+      <c r="CM5" s="0"/>
+      <c r="CN5" s="0"/>
+      <c r="CO5" s="0"/>
+      <c r="CP5" s="0"/>
+      <c r="CQ5" s="0"/>
+      <c r="CR5" s="0"/>
+      <c r="CS5" s="0"/>
+      <c r="CT5" s="0"/>
+      <c r="CU5" s="0"/>
+      <c r="CV5" s="0"/>
+      <c r="CW5" s="0"/>
+      <c r="CX5" s="0"/>
+      <c r="CY5" s="0"/>
+      <c r="CZ5" s="0"/>
+      <c r="DA5" s="0"/>
+      <c r="DB5" s="0"/>
+      <c r="DC5" s="0"/>
+      <c r="DD5" s="0"/>
+      <c r="DE5" s="0"/>
+      <c r="DF5" s="0"/>
+      <c r="DG5" s="0"/>
+      <c r="DH5" s="0"/>
+      <c r="DI5" s="0"/>
+      <c r="DJ5" s="0"/>
+      <c r="DK5" s="0"/>
+      <c r="DL5" s="0"/>
+      <c r="DM5" s="0"/>
+      <c r="DN5" s="0"/>
+      <c r="DO5" s="0"/>
+      <c r="DP5" s="0"/>
+      <c r="DQ5" s="0"/>
+      <c r="DR5" s="0"/>
+      <c r="DS5" s="0"/>
+      <c r="DT5" s="0"/>
+      <c r="DU5" s="0"/>
+      <c r="DV5" s="0"/>
+      <c r="DW5" s="0"/>
+      <c r="DX5" s="0"/>
+      <c r="DY5" s="0"/>
+      <c r="DZ5" s="0"/>
+      <c r="EA5" s="0"/>
+      <c r="EB5" s="0"/>
+      <c r="EC5" s="0"/>
+      <c r="ED5" s="0"/>
+      <c r="EE5" s="0"/>
+      <c r="EF5" s="0"/>
+      <c r="EG5" s="0"/>
+      <c r="EH5" s="0"/>
+      <c r="EI5" s="0"/>
+      <c r="EJ5" s="0"/>
+      <c r="EK5" s="0"/>
+      <c r="EL5" s="0"/>
+      <c r="EM5" s="0"/>
+      <c r="EN5" s="0"/>
+      <c r="EO5" s="0"/>
+      <c r="EP5" s="0"/>
+      <c r="EQ5" s="0"/>
+      <c r="ER5" s="0"/>
+      <c r="ES5" s="0"/>
+      <c r="ET5" s="0"/>
+      <c r="EU5" s="0"/>
+      <c r="EV5" s="0"/>
+      <c r="EW5" s="0"/>
+      <c r="EX5" s="0"/>
+      <c r="EY5" s="0"/>
+      <c r="EZ5" s="0"/>
+      <c r="FA5" s="0"/>
+      <c r="FB5" s="0"/>
+      <c r="FC5" s="0"/>
+      <c r="FD5" s="0"/>
+      <c r="FE5" s="0"/>
+      <c r="FF5" s="0"/>
+      <c r="FG5" s="0"/>
+      <c r="FH5" s="0"/>
+      <c r="FI5" s="0"/>
+      <c r="FJ5" s="0"/>
+      <c r="FK5" s="0"/>
+      <c r="FL5" s="0"/>
+      <c r="FM5" s="0"/>
+      <c r="FN5" s="0"/>
+      <c r="FO5" s="0"/>
+      <c r="FP5" s="0"/>
+      <c r="FQ5" s="0"/>
+      <c r="FR5" s="0"/>
+      <c r="FS5" s="0"/>
+      <c r="FT5" s="0"/>
+      <c r="FU5" s="0"/>
+      <c r="FV5" s="0"/>
+      <c r="FW5" s="0"/>
+      <c r="FX5" s="0"/>
+      <c r="FY5" s="0"/>
+      <c r="FZ5" s="0"/>
+      <c r="GA5" s="0"/>
+      <c r="GB5" s="0"/>
+      <c r="GC5" s="0"/>
+      <c r="GD5" s="0"/>
+      <c r="GE5" s="0"/>
+      <c r="GF5" s="0"/>
+      <c r="GG5" s="0"/>
+      <c r="GH5" s="0"/>
+      <c r="GI5" s="0"/>
+      <c r="GJ5" s="0"/>
+      <c r="GK5" s="0"/>
+      <c r="GL5" s="0"/>
+      <c r="GM5" s="0"/>
+      <c r="GN5" s="0"/>
+      <c r="GO5" s="0"/>
+      <c r="GP5" s="0"/>
+      <c r="GQ5" s="0"/>
+      <c r="GR5" s="0"/>
+      <c r="GS5" s="0"/>
+      <c r="GT5" s="0"/>
+      <c r="GU5" s="0"/>
+      <c r="GV5" s="0"/>
+      <c r="GW5" s="0"/>
+      <c r="GX5" s="0"/>
+      <c r="GY5" s="0"/>
+      <c r="GZ5" s="0"/>
+      <c r="HA5" s="0"/>
+      <c r="HB5" s="0"/>
+      <c r="HC5" s="0"/>
+      <c r="HD5" s="0"/>
+      <c r="HE5" s="0"/>
+      <c r="HF5" s="0"/>
+      <c r="HG5" s="0"/>
+      <c r="HH5" s="0"/>
+      <c r="HI5" s="0"/>
+      <c r="HJ5" s="0"/>
+      <c r="HK5" s="0"/>
+      <c r="HL5" s="0"/>
+      <c r="HM5" s="0"/>
+      <c r="HN5" s="0"/>
+      <c r="HO5" s="0"/>
+      <c r="HP5" s="0"/>
+      <c r="HQ5" s="0"/>
+      <c r="HR5" s="0"/>
+      <c r="HS5" s="0"/>
+      <c r="HT5" s="0"/>
+      <c r="HU5" s="0"/>
+      <c r="HV5" s="0"/>
+      <c r="HW5" s="0"/>
+      <c r="HX5" s="0"/>
+      <c r="HY5" s="0"/>
+      <c r="HZ5" s="0"/>
+      <c r="IA5" s="0"/>
+      <c r="IB5" s="0"/>
+      <c r="IC5" s="0"/>
+      <c r="ID5" s="0"/>
+      <c r="IE5" s="0"/>
+      <c r="IF5" s="0"/>
+      <c r="IG5" s="0"/>
+      <c r="IH5" s="0"/>
+      <c r="II5" s="0"/>
+      <c r="IJ5" s="0"/>
+      <c r="IK5" s="0"/>
+      <c r="IL5" s="0"/>
+      <c r="IM5" s="0"/>
+      <c r="IN5" s="0"/>
+      <c r="IO5" s="0"/>
+      <c r="IP5" s="0"/>
+      <c r="IQ5" s="0"/>
+      <c r="IR5" s="0"/>
+      <c r="IS5" s="0"/>
+      <c r="IT5" s="0"/>
+      <c r="IU5" s="0"/>
+      <c r="IV5" s="0"/>
+      <c r="IW5" s="0"/>
     </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:257" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
         <v>12</v>
       </c>
@@ -945,8 +2509,260 @@
         <f aca="false">L22</f>
         <v>100</v>
       </c>
+      <c r="F6" s="0"/>
+      <c r="G6" s="0"/>
+      <c r="H6" s="0"/>
+      <c r="I6" s="0"/>
+      <c r="J6" s="0"/>
+      <c r="K6" s="0"/>
+      <c r="L6" s="0"/>
+      <c r="M6" s="0"/>
+      <c r="N6" s="0"/>
+      <c r="O6" s="0"/>
+      <c r="P6" s="0"/>
+      <c r="Q6" s="0"/>
+      <c r="R6" s="0"/>
+      <c r="S6" s="0"/>
+      <c r="T6" s="0"/>
+      <c r="U6" s="0"/>
+      <c r="V6" s="0"/>
+      <c r="W6" s="0"/>
+      <c r="X6" s="0"/>
+      <c r="Y6" s="0"/>
+      <c r="Z6" s="0"/>
+      <c r="AA6" s="0"/>
+      <c r="AB6" s="0"/>
+      <c r="AC6" s="0"/>
+      <c r="AD6" s="0"/>
+      <c r="AE6" s="0"/>
+      <c r="AF6" s="0"/>
+      <c r="AG6" s="0"/>
+      <c r="AH6" s="0"/>
+      <c r="AI6" s="0"/>
+      <c r="AJ6" s="0"/>
+      <c r="AK6" s="0"/>
+      <c r="AL6" s="0"/>
+      <c r="AM6" s="0"/>
+      <c r="AN6" s="0"/>
+      <c r="AO6" s="0"/>
+      <c r="AP6" s="0"/>
+      <c r="AQ6" s="0"/>
+      <c r="AR6" s="0"/>
+      <c r="AS6" s="0"/>
+      <c r="AT6" s="0"/>
+      <c r="AU6" s="0"/>
+      <c r="AV6" s="0"/>
+      <c r="AW6" s="0"/>
+      <c r="AX6" s="0"/>
+      <c r="AY6" s="0"/>
+      <c r="AZ6" s="0"/>
+      <c r="BA6" s="0"/>
+      <c r="BB6" s="0"/>
+      <c r="BC6" s="0"/>
+      <c r="BD6" s="0"/>
+      <c r="BE6" s="0"/>
+      <c r="BF6" s="0"/>
+      <c r="BG6" s="0"/>
+      <c r="BH6" s="0"/>
+      <c r="BI6" s="0"/>
+      <c r="BJ6" s="0"/>
+      <c r="BK6" s="0"/>
+      <c r="BL6" s="0"/>
+      <c r="BM6" s="0"/>
+      <c r="BN6" s="0"/>
+      <c r="BO6" s="0"/>
+      <c r="BP6" s="0"/>
+      <c r="BQ6" s="0"/>
+      <c r="BR6" s="0"/>
+      <c r="BS6" s="0"/>
+      <c r="BT6" s="0"/>
+      <c r="BU6" s="0"/>
+      <c r="BV6" s="0"/>
+      <c r="BW6" s="0"/>
+      <c r="BX6" s="0"/>
+      <c r="BY6" s="0"/>
+      <c r="BZ6" s="0"/>
+      <c r="CA6" s="0"/>
+      <c r="CB6" s="0"/>
+      <c r="CC6" s="0"/>
+      <c r="CD6" s="0"/>
+      <c r="CE6" s="0"/>
+      <c r="CF6" s="0"/>
+      <c r="CG6" s="0"/>
+      <c r="CH6" s="0"/>
+      <c r="CI6" s="0"/>
+      <c r="CJ6" s="0"/>
+      <c r="CK6" s="0"/>
+      <c r="CL6" s="0"/>
+      <c r="CM6" s="0"/>
+      <c r="CN6" s="0"/>
+      <c r="CO6" s="0"/>
+      <c r="CP6" s="0"/>
+      <c r="CQ6" s="0"/>
+      <c r="CR6" s="0"/>
+      <c r="CS6" s="0"/>
+      <c r="CT6" s="0"/>
+      <c r="CU6" s="0"/>
+      <c r="CV6" s="0"/>
+      <c r="CW6" s="0"/>
+      <c r="CX6" s="0"/>
+      <c r="CY6" s="0"/>
+      <c r="CZ6" s="0"/>
+      <c r="DA6" s="0"/>
+      <c r="DB6" s="0"/>
+      <c r="DC6" s="0"/>
+      <c r="DD6" s="0"/>
+      <c r="DE6" s="0"/>
+      <c r="DF6" s="0"/>
+      <c r="DG6" s="0"/>
+      <c r="DH6" s="0"/>
+      <c r="DI6" s="0"/>
+      <c r="DJ6" s="0"/>
+      <c r="DK6" s="0"/>
+      <c r="DL6" s="0"/>
+      <c r="DM6" s="0"/>
+      <c r="DN6" s="0"/>
+      <c r="DO6" s="0"/>
+      <c r="DP6" s="0"/>
+      <c r="DQ6" s="0"/>
+      <c r="DR6" s="0"/>
+      <c r="DS6" s="0"/>
+      <c r="DT6" s="0"/>
+      <c r="DU6" s="0"/>
+      <c r="DV6" s="0"/>
+      <c r="DW6" s="0"/>
+      <c r="DX6" s="0"/>
+      <c r="DY6" s="0"/>
+      <c r="DZ6" s="0"/>
+      <c r="EA6" s="0"/>
+      <c r="EB6" s="0"/>
+      <c r="EC6" s="0"/>
+      <c r="ED6" s="0"/>
+      <c r="EE6" s="0"/>
+      <c r="EF6" s="0"/>
+      <c r="EG6" s="0"/>
+      <c r="EH6" s="0"/>
+      <c r="EI6" s="0"/>
+      <c r="EJ6" s="0"/>
+      <c r="EK6" s="0"/>
+      <c r="EL6" s="0"/>
+      <c r="EM6" s="0"/>
+      <c r="EN6" s="0"/>
+      <c r="EO6" s="0"/>
+      <c r="EP6" s="0"/>
+      <c r="EQ6" s="0"/>
+      <c r="ER6" s="0"/>
+      <c r="ES6" s="0"/>
+      <c r="ET6" s="0"/>
+      <c r="EU6" s="0"/>
+      <c r="EV6" s="0"/>
+      <c r="EW6" s="0"/>
+      <c r="EX6" s="0"/>
+      <c r="EY6" s="0"/>
+      <c r="EZ6" s="0"/>
+      <c r="FA6" s="0"/>
+      <c r="FB6" s="0"/>
+      <c r="FC6" s="0"/>
+      <c r="FD6" s="0"/>
+      <c r="FE6" s="0"/>
+      <c r="FF6" s="0"/>
+      <c r="FG6" s="0"/>
+      <c r="FH6" s="0"/>
+      <c r="FI6" s="0"/>
+      <c r="FJ6" s="0"/>
+      <c r="FK6" s="0"/>
+      <c r="FL6" s="0"/>
+      <c r="FM6" s="0"/>
+      <c r="FN6" s="0"/>
+      <c r="FO6" s="0"/>
+      <c r="FP6" s="0"/>
+      <c r="FQ6" s="0"/>
+      <c r="FR6" s="0"/>
+      <c r="FS6" s="0"/>
+      <c r="FT6" s="0"/>
+      <c r="FU6" s="0"/>
+      <c r="FV6" s="0"/>
+      <c r="FW6" s="0"/>
+      <c r="FX6" s="0"/>
+      <c r="FY6" s="0"/>
+      <c r="FZ6" s="0"/>
+      <c r="GA6" s="0"/>
+      <c r="GB6" s="0"/>
+      <c r="GC6" s="0"/>
+      <c r="GD6" s="0"/>
+      <c r="GE6" s="0"/>
+      <c r="GF6" s="0"/>
+      <c r="GG6" s="0"/>
+      <c r="GH6" s="0"/>
+      <c r="GI6" s="0"/>
+      <c r="GJ6" s="0"/>
+      <c r="GK6" s="0"/>
+      <c r="GL6" s="0"/>
+      <c r="GM6" s="0"/>
+      <c r="GN6" s="0"/>
+      <c r="GO6" s="0"/>
+      <c r="GP6" s="0"/>
+      <c r="GQ6" s="0"/>
+      <c r="GR6" s="0"/>
+      <c r="GS6" s="0"/>
+      <c r="GT6" s="0"/>
+      <c r="GU6" s="0"/>
+      <c r="GV6" s="0"/>
+      <c r="GW6" s="0"/>
+      <c r="GX6" s="0"/>
+      <c r="GY6" s="0"/>
+      <c r="GZ6" s="0"/>
+      <c r="HA6" s="0"/>
+      <c r="HB6" s="0"/>
+      <c r="HC6" s="0"/>
+      <c r="HD6" s="0"/>
+      <c r="HE6" s="0"/>
+      <c r="HF6" s="0"/>
+      <c r="HG6" s="0"/>
+      <c r="HH6" s="0"/>
+      <c r="HI6" s="0"/>
+      <c r="HJ6" s="0"/>
+      <c r="HK6" s="0"/>
+      <c r="HL6" s="0"/>
+      <c r="HM6" s="0"/>
+      <c r="HN6" s="0"/>
+      <c r="HO6" s="0"/>
+      <c r="HP6" s="0"/>
+      <c r="HQ6" s="0"/>
+      <c r="HR6" s="0"/>
+      <c r="HS6" s="0"/>
+      <c r="HT6" s="0"/>
+      <c r="HU6" s="0"/>
+      <c r="HV6" s="0"/>
+      <c r="HW6" s="0"/>
+      <c r="HX6" s="0"/>
+      <c r="HY6" s="0"/>
+      <c r="HZ6" s="0"/>
+      <c r="IA6" s="0"/>
+      <c r="IB6" s="0"/>
+      <c r="IC6" s="0"/>
+      <c r="ID6" s="0"/>
+      <c r="IE6" s="0"/>
+      <c r="IF6" s="0"/>
+      <c r="IG6" s="0"/>
+      <c r="IH6" s="0"/>
+      <c r="II6" s="0"/>
+      <c r="IJ6" s="0"/>
+      <c r="IK6" s="0"/>
+      <c r="IL6" s="0"/>
+      <c r="IM6" s="0"/>
+      <c r="IN6" s="0"/>
+      <c r="IO6" s="0"/>
+      <c r="IP6" s="0"/>
+      <c r="IQ6" s="0"/>
+      <c r="IR6" s="0"/>
+      <c r="IS6" s="0"/>
+      <c r="IT6" s="0"/>
+      <c r="IU6" s="0"/>
+      <c r="IV6" s="0"/>
+      <c r="IW6" s="0"/>
     </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:257" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
         <v>13</v>
       </c>
@@ -957,8 +2773,260 @@
         <f aca="false">ROUND(AVERAGE(E5:E6),)</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
+      <c r="L7" s="0"/>
+      <c r="M7" s="0"/>
+      <c r="N7" s="0"/>
+      <c r="O7" s="0"/>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
+      <c r="S7" s="0"/>
+      <c r="T7" s="0"/>
+      <c r="U7" s="0"/>
+      <c r="V7" s="0"/>
+      <c r="W7" s="0"/>
+      <c r="X7" s="0"/>
+      <c r="Y7" s="0"/>
+      <c r="Z7" s="0"/>
+      <c r="AA7" s="0"/>
+      <c r="AB7" s="0"/>
+      <c r="AC7" s="0"/>
+      <c r="AD7" s="0"/>
+      <c r="AE7" s="0"/>
+      <c r="AF7" s="0"/>
+      <c r="AG7" s="0"/>
+      <c r="AH7" s="0"/>
+      <c r="AI7" s="0"/>
+      <c r="AJ7" s="0"/>
+      <c r="AK7" s="0"/>
+      <c r="AL7" s="0"/>
+      <c r="AM7" s="0"/>
+      <c r="AN7" s="0"/>
+      <c r="AO7" s="0"/>
+      <c r="AP7" s="0"/>
+      <c r="AQ7" s="0"/>
+      <c r="AR7" s="0"/>
+      <c r="AS7" s="0"/>
+      <c r="AT7" s="0"/>
+      <c r="AU7" s="0"/>
+      <c r="AV7" s="0"/>
+      <c r="AW7" s="0"/>
+      <c r="AX7" s="0"/>
+      <c r="AY7" s="0"/>
+      <c r="AZ7" s="0"/>
+      <c r="BA7" s="0"/>
+      <c r="BB7" s="0"/>
+      <c r="BC7" s="0"/>
+      <c r="BD7" s="0"/>
+      <c r="BE7" s="0"/>
+      <c r="BF7" s="0"/>
+      <c r="BG7" s="0"/>
+      <c r="BH7" s="0"/>
+      <c r="BI7" s="0"/>
+      <c r="BJ7" s="0"/>
+      <c r="BK7" s="0"/>
+      <c r="BL7" s="0"/>
+      <c r="BM7" s="0"/>
+      <c r="BN7" s="0"/>
+      <c r="BO7" s="0"/>
+      <c r="BP7" s="0"/>
+      <c r="BQ7" s="0"/>
+      <c r="BR7" s="0"/>
+      <c r="BS7" s="0"/>
+      <c r="BT7" s="0"/>
+      <c r="BU7" s="0"/>
+      <c r="BV7" s="0"/>
+      <c r="BW7" s="0"/>
+      <c r="BX7" s="0"/>
+      <c r="BY7" s="0"/>
+      <c r="BZ7" s="0"/>
+      <c r="CA7" s="0"/>
+      <c r="CB7" s="0"/>
+      <c r="CC7" s="0"/>
+      <c r="CD7" s="0"/>
+      <c r="CE7" s="0"/>
+      <c r="CF7" s="0"/>
+      <c r="CG7" s="0"/>
+      <c r="CH7" s="0"/>
+      <c r="CI7" s="0"/>
+      <c r="CJ7" s="0"/>
+      <c r="CK7" s="0"/>
+      <c r="CL7" s="0"/>
+      <c r="CM7" s="0"/>
+      <c r="CN7" s="0"/>
+      <c r="CO7" s="0"/>
+      <c r="CP7" s="0"/>
+      <c r="CQ7" s="0"/>
+      <c r="CR7" s="0"/>
+      <c r="CS7" s="0"/>
+      <c r="CT7" s="0"/>
+      <c r="CU7" s="0"/>
+      <c r="CV7" s="0"/>
+      <c r="CW7" s="0"/>
+      <c r="CX7" s="0"/>
+      <c r="CY7" s="0"/>
+      <c r="CZ7" s="0"/>
+      <c r="DA7" s="0"/>
+      <c r="DB7" s="0"/>
+      <c r="DC7" s="0"/>
+      <c r="DD7" s="0"/>
+      <c r="DE7" s="0"/>
+      <c r="DF7" s="0"/>
+      <c r="DG7" s="0"/>
+      <c r="DH7" s="0"/>
+      <c r="DI7" s="0"/>
+      <c r="DJ7" s="0"/>
+      <c r="DK7" s="0"/>
+      <c r="DL7" s="0"/>
+      <c r="DM7" s="0"/>
+      <c r="DN7" s="0"/>
+      <c r="DO7" s="0"/>
+      <c r="DP7" s="0"/>
+      <c r="DQ7" s="0"/>
+      <c r="DR7" s="0"/>
+      <c r="DS7" s="0"/>
+      <c r="DT7" s="0"/>
+      <c r="DU7" s="0"/>
+      <c r="DV7" s="0"/>
+      <c r="DW7" s="0"/>
+      <c r="DX7" s="0"/>
+      <c r="DY7" s="0"/>
+      <c r="DZ7" s="0"/>
+      <c r="EA7" s="0"/>
+      <c r="EB7" s="0"/>
+      <c r="EC7" s="0"/>
+      <c r="ED7" s="0"/>
+      <c r="EE7" s="0"/>
+      <c r="EF7" s="0"/>
+      <c r="EG7" s="0"/>
+      <c r="EH7" s="0"/>
+      <c r="EI7" s="0"/>
+      <c r="EJ7" s="0"/>
+      <c r="EK7" s="0"/>
+      <c r="EL7" s="0"/>
+      <c r="EM7" s="0"/>
+      <c r="EN7" s="0"/>
+      <c r="EO7" s="0"/>
+      <c r="EP7" s="0"/>
+      <c r="EQ7" s="0"/>
+      <c r="ER7" s="0"/>
+      <c r="ES7" s="0"/>
+      <c r="ET7" s="0"/>
+      <c r="EU7" s="0"/>
+      <c r="EV7" s="0"/>
+      <c r="EW7" s="0"/>
+      <c r="EX7" s="0"/>
+      <c r="EY7" s="0"/>
+      <c r="EZ7" s="0"/>
+      <c r="FA7" s="0"/>
+      <c r="FB7" s="0"/>
+      <c r="FC7" s="0"/>
+      <c r="FD7" s="0"/>
+      <c r="FE7" s="0"/>
+      <c r="FF7" s="0"/>
+      <c r="FG7" s="0"/>
+      <c r="FH7" s="0"/>
+      <c r="FI7" s="0"/>
+      <c r="FJ7" s="0"/>
+      <c r="FK7" s="0"/>
+      <c r="FL7" s="0"/>
+      <c r="FM7" s="0"/>
+      <c r="FN7" s="0"/>
+      <c r="FO7" s="0"/>
+      <c r="FP7" s="0"/>
+      <c r="FQ7" s="0"/>
+      <c r="FR7" s="0"/>
+      <c r="FS7" s="0"/>
+      <c r="FT7" s="0"/>
+      <c r="FU7" s="0"/>
+      <c r="FV7" s="0"/>
+      <c r="FW7" s="0"/>
+      <c r="FX7" s="0"/>
+      <c r="FY7" s="0"/>
+      <c r="FZ7" s="0"/>
+      <c r="GA7" s="0"/>
+      <c r="GB7" s="0"/>
+      <c r="GC7" s="0"/>
+      <c r="GD7" s="0"/>
+      <c r="GE7" s="0"/>
+      <c r="GF7" s="0"/>
+      <c r="GG7" s="0"/>
+      <c r="GH7" s="0"/>
+      <c r="GI7" s="0"/>
+      <c r="GJ7" s="0"/>
+      <c r="GK7" s="0"/>
+      <c r="GL7" s="0"/>
+      <c r="GM7" s="0"/>
+      <c r="GN7" s="0"/>
+      <c r="GO7" s="0"/>
+      <c r="GP7" s="0"/>
+      <c r="GQ7" s="0"/>
+      <c r="GR7" s="0"/>
+      <c r="GS7" s="0"/>
+      <c r="GT7" s="0"/>
+      <c r="GU7" s="0"/>
+      <c r="GV7" s="0"/>
+      <c r="GW7" s="0"/>
+      <c r="GX7" s="0"/>
+      <c r="GY7" s="0"/>
+      <c r="GZ7" s="0"/>
+      <c r="HA7" s="0"/>
+      <c r="HB7" s="0"/>
+      <c r="HC7" s="0"/>
+      <c r="HD7" s="0"/>
+      <c r="HE7" s="0"/>
+      <c r="HF7" s="0"/>
+      <c r="HG7" s="0"/>
+      <c r="HH7" s="0"/>
+      <c r="HI7" s="0"/>
+      <c r="HJ7" s="0"/>
+      <c r="HK7" s="0"/>
+      <c r="HL7" s="0"/>
+      <c r="HM7" s="0"/>
+      <c r="HN7" s="0"/>
+      <c r="HO7" s="0"/>
+      <c r="HP7" s="0"/>
+      <c r="HQ7" s="0"/>
+      <c r="HR7" s="0"/>
+      <c r="HS7" s="0"/>
+      <c r="HT7" s="0"/>
+      <c r="HU7" s="0"/>
+      <c r="HV7" s="0"/>
+      <c r="HW7" s="0"/>
+      <c r="HX7" s="0"/>
+      <c r="HY7" s="0"/>
+      <c r="HZ7" s="0"/>
+      <c r="IA7" s="0"/>
+      <c r="IB7" s="0"/>
+      <c r="IC7" s="0"/>
+      <c r="ID7" s="0"/>
+      <c r="IE7" s="0"/>
+      <c r="IF7" s="0"/>
+      <c r="IG7" s="0"/>
+      <c r="IH7" s="0"/>
+      <c r="II7" s="0"/>
+      <c r="IJ7" s="0"/>
+      <c r="IK7" s="0"/>
+      <c r="IL7" s="0"/>
+      <c r="IM7" s="0"/>
+      <c r="IN7" s="0"/>
+      <c r="IO7" s="0"/>
+      <c r="IP7" s="0"/>
+      <c r="IQ7" s="0"/>
+      <c r="IR7" s="0"/>
+      <c r="IS7" s="0"/>
+      <c r="IT7" s="0"/>
+      <c r="IU7" s="0"/>
+      <c r="IV7" s="0"/>
+      <c r="IW7" s="0"/>
     </row>
-    <row r="10" customFormat="false" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:257" customFormat="false" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="12" t="s">
         <v>14</v>
       </c>
@@ -995,8 +3063,253 @@
       <c r="L10" s="13" t="s">
         <v>24</v>
       </c>
+      <c r="M10" s="0"/>
+      <c r="N10" s="0"/>
+      <c r="O10" s="0"/>
+      <c r="P10" s="0"/>
+      <c r="Q10" s="0"/>
+      <c r="R10" s="0"/>
+      <c r="S10" s="0"/>
+      <c r="T10" s="0"/>
+      <c r="U10" s="0"/>
+      <c r="V10" s="0"/>
+      <c r="W10" s="0"/>
+      <c r="X10" s="0"/>
+      <c r="Y10" s="0"/>
+      <c r="Z10" s="0"/>
+      <c r="AA10" s="0"/>
+      <c r="AB10" s="0"/>
+      <c r="AC10" s="0"/>
+      <c r="AD10" s="0"/>
+      <c r="AE10" s="0"/>
+      <c r="AF10" s="0"/>
+      <c r="AG10" s="0"/>
+      <c r="AH10" s="0"/>
+      <c r="AI10" s="0"/>
+      <c r="AJ10" s="0"/>
+      <c r="AK10" s="0"/>
+      <c r="AL10" s="0"/>
+      <c r="AM10" s="0"/>
+      <c r="AN10" s="0"/>
+      <c r="AO10" s="0"/>
+      <c r="AP10" s="0"/>
+      <c r="AQ10" s="0"/>
+      <c r="AR10" s="0"/>
+      <c r="AS10" s="0"/>
+      <c r="AT10" s="0"/>
+      <c r="AU10" s="0"/>
+      <c r="AV10" s="0"/>
+      <c r="AW10" s="0"/>
+      <c r="AX10" s="0"/>
+      <c r="AY10" s="0"/>
+      <c r="AZ10" s="0"/>
+      <c r="BA10" s="0"/>
+      <c r="BB10" s="0"/>
+      <c r="BC10" s="0"/>
+      <c r="BD10" s="0"/>
+      <c r="BE10" s="0"/>
+      <c r="BF10" s="0"/>
+      <c r="BG10" s="0"/>
+      <c r="BH10" s="0"/>
+      <c r="BI10" s="0"/>
+      <c r="BJ10" s="0"/>
+      <c r="BK10" s="0"/>
+      <c r="BL10" s="0"/>
+      <c r="BM10" s="0"/>
+      <c r="BN10" s="0"/>
+      <c r="BO10" s="0"/>
+      <c r="BP10" s="0"/>
+      <c r="BQ10" s="0"/>
+      <c r="BR10" s="0"/>
+      <c r="BS10" s="0"/>
+      <c r="BT10" s="0"/>
+      <c r="BU10" s="0"/>
+      <c r="BV10" s="0"/>
+      <c r="BW10" s="0"/>
+      <c r="BX10" s="0"/>
+      <c r="BY10" s="0"/>
+      <c r="BZ10" s="0"/>
+      <c r="CA10" s="0"/>
+      <c r="CB10" s="0"/>
+      <c r="CC10" s="0"/>
+      <c r="CD10" s="0"/>
+      <c r="CE10" s="0"/>
+      <c r="CF10" s="0"/>
+      <c r="CG10" s="0"/>
+      <c r="CH10" s="0"/>
+      <c r="CI10" s="0"/>
+      <c r="CJ10" s="0"/>
+      <c r="CK10" s="0"/>
+      <c r="CL10" s="0"/>
+      <c r="CM10" s="0"/>
+      <c r="CN10" s="0"/>
+      <c r="CO10" s="0"/>
+      <c r="CP10" s="0"/>
+      <c r="CQ10" s="0"/>
+      <c r="CR10" s="0"/>
+      <c r="CS10" s="0"/>
+      <c r="CT10" s="0"/>
+      <c r="CU10" s="0"/>
+      <c r="CV10" s="0"/>
+      <c r="CW10" s="0"/>
+      <c r="CX10" s="0"/>
+      <c r="CY10" s="0"/>
+      <c r="CZ10" s="0"/>
+      <c r="DA10" s="0"/>
+      <c r="DB10" s="0"/>
+      <c r="DC10" s="0"/>
+      <c r="DD10" s="0"/>
+      <c r="DE10" s="0"/>
+      <c r="DF10" s="0"/>
+      <c r="DG10" s="0"/>
+      <c r="DH10" s="0"/>
+      <c r="DI10" s="0"/>
+      <c r="DJ10" s="0"/>
+      <c r="DK10" s="0"/>
+      <c r="DL10" s="0"/>
+      <c r="DM10" s="0"/>
+      <c r="DN10" s="0"/>
+      <c r="DO10" s="0"/>
+      <c r="DP10" s="0"/>
+      <c r="DQ10" s="0"/>
+      <c r="DR10" s="0"/>
+      <c r="DS10" s="0"/>
+      <c r="DT10" s="0"/>
+      <c r="DU10" s="0"/>
+      <c r="DV10" s="0"/>
+      <c r="DW10" s="0"/>
+      <c r="DX10" s="0"/>
+      <c r="DY10" s="0"/>
+      <c r="DZ10" s="0"/>
+      <c r="EA10" s="0"/>
+      <c r="EB10" s="0"/>
+      <c r="EC10" s="0"/>
+      <c r="ED10" s="0"/>
+      <c r="EE10" s="0"/>
+      <c r="EF10" s="0"/>
+      <c r="EG10" s="0"/>
+      <c r="EH10" s="0"/>
+      <c r="EI10" s="0"/>
+      <c r="EJ10" s="0"/>
+      <c r="EK10" s="0"/>
+      <c r="EL10" s="0"/>
+      <c r="EM10" s="0"/>
+      <c r="EN10" s="0"/>
+      <c r="EO10" s="0"/>
+      <c r="EP10" s="0"/>
+      <c r="EQ10" s="0"/>
+      <c r="ER10" s="0"/>
+      <c r="ES10" s="0"/>
+      <c r="ET10" s="0"/>
+      <c r="EU10" s="0"/>
+      <c r="EV10" s="0"/>
+      <c r="EW10" s="0"/>
+      <c r="EX10" s="0"/>
+      <c r="EY10" s="0"/>
+      <c r="EZ10" s="0"/>
+      <c r="FA10" s="0"/>
+      <c r="FB10" s="0"/>
+      <c r="FC10" s="0"/>
+      <c r="FD10" s="0"/>
+      <c r="FE10" s="0"/>
+      <c r="FF10" s="0"/>
+      <c r="FG10" s="0"/>
+      <c r="FH10" s="0"/>
+      <c r="FI10" s="0"/>
+      <c r="FJ10" s="0"/>
+      <c r="FK10" s="0"/>
+      <c r="FL10" s="0"/>
+      <c r="FM10" s="0"/>
+      <c r="FN10" s="0"/>
+      <c r="FO10" s="0"/>
+      <c r="FP10" s="0"/>
+      <c r="FQ10" s="0"/>
+      <c r="FR10" s="0"/>
+      <c r="FS10" s="0"/>
+      <c r="FT10" s="0"/>
+      <c r="FU10" s="0"/>
+      <c r="FV10" s="0"/>
+      <c r="FW10" s="0"/>
+      <c r="FX10" s="0"/>
+      <c r="FY10" s="0"/>
+      <c r="FZ10" s="0"/>
+      <c r="GA10" s="0"/>
+      <c r="GB10" s="0"/>
+      <c r="GC10" s="0"/>
+      <c r="GD10" s="0"/>
+      <c r="GE10" s="0"/>
+      <c r="GF10" s="0"/>
+      <c r="GG10" s="0"/>
+      <c r="GH10" s="0"/>
+      <c r="GI10" s="0"/>
+      <c r="GJ10" s="0"/>
+      <c r="GK10" s="0"/>
+      <c r="GL10" s="0"/>
+      <c r="GM10" s="0"/>
+      <c r="GN10" s="0"/>
+      <c r="GO10" s="0"/>
+      <c r="GP10" s="0"/>
+      <c r="GQ10" s="0"/>
+      <c r="GR10" s="0"/>
+      <c r="GS10" s="0"/>
+      <c r="GT10" s="0"/>
+      <c r="GU10" s="0"/>
+      <c r="GV10" s="0"/>
+      <c r="GW10" s="0"/>
+      <c r="GX10" s="0"/>
+      <c r="GY10" s="0"/>
+      <c r="GZ10" s="0"/>
+      <c r="HA10" s="0"/>
+      <c r="HB10" s="0"/>
+      <c r="HC10" s="0"/>
+      <c r="HD10" s="0"/>
+      <c r="HE10" s="0"/>
+      <c r="HF10" s="0"/>
+      <c r="HG10" s="0"/>
+      <c r="HH10" s="0"/>
+      <c r="HI10" s="0"/>
+      <c r="HJ10" s="0"/>
+      <c r="HK10" s="0"/>
+      <c r="HL10" s="0"/>
+      <c r="HM10" s="0"/>
+      <c r="HN10" s="0"/>
+      <c r="HO10" s="0"/>
+      <c r="HP10" s="0"/>
+      <c r="HQ10" s="0"/>
+      <c r="HR10" s="0"/>
+      <c r="HS10" s="0"/>
+      <c r="HT10" s="0"/>
+      <c r="HU10" s="0"/>
+      <c r="HV10" s="0"/>
+      <c r="HW10" s="0"/>
+      <c r="HX10" s="0"/>
+      <c r="HY10" s="0"/>
+      <c r="HZ10" s="0"/>
+      <c r="IA10" s="0"/>
+      <c r="IB10" s="0"/>
+      <c r="IC10" s="0"/>
+      <c r="ID10" s="0"/>
+      <c r="IE10" s="0"/>
+      <c r="IF10" s="0"/>
+      <c r="IG10" s="0"/>
+      <c r="IH10" s="0"/>
+      <c r="II10" s="0"/>
+      <c r="IJ10" s="0"/>
+      <c r="IK10" s="0"/>
+      <c r="IL10" s="0"/>
+      <c r="IM10" s="0"/>
+      <c r="IN10" s="0"/>
+      <c r="IO10" s="0"/>
+      <c r="IP10" s="0"/>
+      <c r="IQ10" s="0"/>
+      <c r="IR10" s="0"/>
+      <c r="IS10" s="0"/>
+      <c r="IT10" s="0"/>
+      <c r="IU10" s="0"/>
+      <c r="IV10" s="0"/>
+      <c r="IW10" s="0"/>
     </row>
-    <row r="11" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:257" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="14" t="s">
         <v>25</v>
       </c>
@@ -1036,8 +3349,253 @@
         <f aca="false">K11*I11</f>
         <v>0</v>
       </c>
+      <c r="M11" s="0"/>
+      <c r="N11" s="0"/>
+      <c r="O11" s="0"/>
+      <c r="P11" s="0"/>
+      <c r="Q11" s="0"/>
+      <c r="R11" s="0"/>
+      <c r="S11" s="0"/>
+      <c r="T11" s="0"/>
+      <c r="U11" s="0"/>
+      <c r="V11" s="0"/>
+      <c r="W11" s="0"/>
+      <c r="X11" s="0"/>
+      <c r="Y11" s="0"/>
+      <c r="Z11" s="0"/>
+      <c r="AA11" s="0"/>
+      <c r="AB11" s="0"/>
+      <c r="AC11" s="0"/>
+      <c r="AD11" s="0"/>
+      <c r="AE11" s="0"/>
+      <c r="AF11" s="0"/>
+      <c r="AG11" s="0"/>
+      <c r="AH11" s="0"/>
+      <c r="AI11" s="0"/>
+      <c r="AJ11" s="0"/>
+      <c r="AK11" s="0"/>
+      <c r="AL11" s="0"/>
+      <c r="AM11" s="0"/>
+      <c r="AN11" s="0"/>
+      <c r="AO11" s="0"/>
+      <c r="AP11" s="0"/>
+      <c r="AQ11" s="0"/>
+      <c r="AR11" s="0"/>
+      <c r="AS11" s="0"/>
+      <c r="AT11" s="0"/>
+      <c r="AU11" s="0"/>
+      <c r="AV11" s="0"/>
+      <c r="AW11" s="0"/>
+      <c r="AX11" s="0"/>
+      <c r="AY11" s="0"/>
+      <c r="AZ11" s="0"/>
+      <c r="BA11" s="0"/>
+      <c r="BB11" s="0"/>
+      <c r="BC11" s="0"/>
+      <c r="BD11" s="0"/>
+      <c r="BE11" s="0"/>
+      <c r="BF11" s="0"/>
+      <c r="BG11" s="0"/>
+      <c r="BH11" s="0"/>
+      <c r="BI11" s="0"/>
+      <c r="BJ11" s="0"/>
+      <c r="BK11" s="0"/>
+      <c r="BL11" s="0"/>
+      <c r="BM11" s="0"/>
+      <c r="BN11" s="0"/>
+      <c r="BO11" s="0"/>
+      <c r="BP11" s="0"/>
+      <c r="BQ11" s="0"/>
+      <c r="BR11" s="0"/>
+      <c r="BS11" s="0"/>
+      <c r="BT11" s="0"/>
+      <c r="BU11" s="0"/>
+      <c r="BV11" s="0"/>
+      <c r="BW11" s="0"/>
+      <c r="BX11" s="0"/>
+      <c r="BY11" s="0"/>
+      <c r="BZ11" s="0"/>
+      <c r="CA11" s="0"/>
+      <c r="CB11" s="0"/>
+      <c r="CC11" s="0"/>
+      <c r="CD11" s="0"/>
+      <c r="CE11" s="0"/>
+      <c r="CF11" s="0"/>
+      <c r="CG11" s="0"/>
+      <c r="CH11" s="0"/>
+      <c r="CI11" s="0"/>
+      <c r="CJ11" s="0"/>
+      <c r="CK11" s="0"/>
+      <c r="CL11" s="0"/>
+      <c r="CM11" s="0"/>
+      <c r="CN11" s="0"/>
+      <c r="CO11" s="0"/>
+      <c r="CP11" s="0"/>
+      <c r="CQ11" s="0"/>
+      <c r="CR11" s="0"/>
+      <c r="CS11" s="0"/>
+      <c r="CT11" s="0"/>
+      <c r="CU11" s="0"/>
+      <c r="CV11" s="0"/>
+      <c r="CW11" s="0"/>
+      <c r="CX11" s="0"/>
+      <c r="CY11" s="0"/>
+      <c r="CZ11" s="0"/>
+      <c r="DA11" s="0"/>
+      <c r="DB11" s="0"/>
+      <c r="DC11" s="0"/>
+      <c r="DD11" s="0"/>
+      <c r="DE11" s="0"/>
+      <c r="DF11" s="0"/>
+      <c r="DG11" s="0"/>
+      <c r="DH11" s="0"/>
+      <c r="DI11" s="0"/>
+      <c r="DJ11" s="0"/>
+      <c r="DK11" s="0"/>
+      <c r="DL11" s="0"/>
+      <c r="DM11" s="0"/>
+      <c r="DN11" s="0"/>
+      <c r="DO11" s="0"/>
+      <c r="DP11" s="0"/>
+      <c r="DQ11" s="0"/>
+      <c r="DR11" s="0"/>
+      <c r="DS11" s="0"/>
+      <c r="DT11" s="0"/>
+      <c r="DU11" s="0"/>
+      <c r="DV11" s="0"/>
+      <c r="DW11" s="0"/>
+      <c r="DX11" s="0"/>
+      <c r="DY11" s="0"/>
+      <c r="DZ11" s="0"/>
+      <c r="EA11" s="0"/>
+      <c r="EB11" s="0"/>
+      <c r="EC11" s="0"/>
+      <c r="ED11" s="0"/>
+      <c r="EE11" s="0"/>
+      <c r="EF11" s="0"/>
+      <c r="EG11" s="0"/>
+      <c r="EH11" s="0"/>
+      <c r="EI11" s="0"/>
+      <c r="EJ11" s="0"/>
+      <c r="EK11" s="0"/>
+      <c r="EL11" s="0"/>
+      <c r="EM11" s="0"/>
+      <c r="EN11" s="0"/>
+      <c r="EO11" s="0"/>
+      <c r="EP11" s="0"/>
+      <c r="EQ11" s="0"/>
+      <c r="ER11" s="0"/>
+      <c r="ES11" s="0"/>
+      <c r="ET11" s="0"/>
+      <c r="EU11" s="0"/>
+      <c r="EV11" s="0"/>
+      <c r="EW11" s="0"/>
+      <c r="EX11" s="0"/>
+      <c r="EY11" s="0"/>
+      <c r="EZ11" s="0"/>
+      <c r="FA11" s="0"/>
+      <c r="FB11" s="0"/>
+      <c r="FC11" s="0"/>
+      <c r="FD11" s="0"/>
+      <c r="FE11" s="0"/>
+      <c r="FF11" s="0"/>
+      <c r="FG11" s="0"/>
+      <c r="FH11" s="0"/>
+      <c r="FI11" s="0"/>
+      <c r="FJ11" s="0"/>
+      <c r="FK11" s="0"/>
+      <c r="FL11" s="0"/>
+      <c r="FM11" s="0"/>
+      <c r="FN11" s="0"/>
+      <c r="FO11" s="0"/>
+      <c r="FP11" s="0"/>
+      <c r="FQ11" s="0"/>
+      <c r="FR11" s="0"/>
+      <c r="FS11" s="0"/>
+      <c r="FT11" s="0"/>
+      <c r="FU11" s="0"/>
+      <c r="FV11" s="0"/>
+      <c r="FW11" s="0"/>
+      <c r="FX11" s="0"/>
+      <c r="FY11" s="0"/>
+      <c r="FZ11" s="0"/>
+      <c r="GA11" s="0"/>
+      <c r="GB11" s="0"/>
+      <c r="GC11" s="0"/>
+      <c r="GD11" s="0"/>
+      <c r="GE11" s="0"/>
+      <c r="GF11" s="0"/>
+      <c r="GG11" s="0"/>
+      <c r="GH11" s="0"/>
+      <c r="GI11" s="0"/>
+      <c r="GJ11" s="0"/>
+      <c r="GK11" s="0"/>
+      <c r="GL11" s="0"/>
+      <c r="GM11" s="0"/>
+      <c r="GN11" s="0"/>
+      <c r="GO11" s="0"/>
+      <c r="GP11" s="0"/>
+      <c r="GQ11" s="0"/>
+      <c r="GR11" s="0"/>
+      <c r="GS11" s="0"/>
+      <c r="GT11" s="0"/>
+      <c r="GU11" s="0"/>
+      <c r="GV11" s="0"/>
+      <c r="GW11" s="0"/>
+      <c r="GX11" s="0"/>
+      <c r="GY11" s="0"/>
+      <c r="GZ11" s="0"/>
+      <c r="HA11" s="0"/>
+      <c r="HB11" s="0"/>
+      <c r="HC11" s="0"/>
+      <c r="HD11" s="0"/>
+      <c r="HE11" s="0"/>
+      <c r="HF11" s="0"/>
+      <c r="HG11" s="0"/>
+      <c r="HH11" s="0"/>
+      <c r="HI11" s="0"/>
+      <c r="HJ11" s="0"/>
+      <c r="HK11" s="0"/>
+      <c r="HL11" s="0"/>
+      <c r="HM11" s="0"/>
+      <c r="HN11" s="0"/>
+      <c r="HO11" s="0"/>
+      <c r="HP11" s="0"/>
+      <c r="HQ11" s="0"/>
+      <c r="HR11" s="0"/>
+      <c r="HS11" s="0"/>
+      <c r="HT11" s="0"/>
+      <c r="HU11" s="0"/>
+      <c r="HV11" s="0"/>
+      <c r="HW11" s="0"/>
+      <c r="HX11" s="0"/>
+      <c r="HY11" s="0"/>
+      <c r="HZ11" s="0"/>
+      <c r="IA11" s="0"/>
+      <c r="IB11" s="0"/>
+      <c r="IC11" s="0"/>
+      <c r="ID11" s="0"/>
+      <c r="IE11" s="0"/>
+      <c r="IF11" s="0"/>
+      <c r="IG11" s="0"/>
+      <c r="IH11" s="0"/>
+      <c r="II11" s="0"/>
+      <c r="IJ11" s="0"/>
+      <c r="IK11" s="0"/>
+      <c r="IL11" s="0"/>
+      <c r="IM11" s="0"/>
+      <c r="IN11" s="0"/>
+      <c r="IO11" s="0"/>
+      <c r="IP11" s="0"/>
+      <c r="IQ11" s="0"/>
+      <c r="IR11" s="0"/>
+      <c r="IS11" s="0"/>
+      <c r="IT11" s="0"/>
+      <c r="IU11" s="0"/>
+      <c r="IV11" s="0"/>
+      <c r="IW11" s="0"/>
     </row>
-    <row r="12" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:257" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="14"/>
       <c r="B12" s="24" t="s">
         <v>31</v>
@@ -1075,8 +3633,253 @@
         <f aca="false">K12*I12</f>
         <v>20</v>
       </c>
+      <c r="M12" s="0"/>
+      <c r="N12" s="0"/>
+      <c r="O12" s="0"/>
+      <c r="P12" s="0"/>
+      <c r="Q12" s="0"/>
+      <c r="R12" s="0"/>
+      <c r="S12" s="0"/>
+      <c r="T12" s="0"/>
+      <c r="U12" s="0"/>
+      <c r="V12" s="0"/>
+      <c r="W12" s="0"/>
+      <c r="X12" s="0"/>
+      <c r="Y12" s="0"/>
+      <c r="Z12" s="0"/>
+      <c r="AA12" s="0"/>
+      <c r="AB12" s="0"/>
+      <c r="AC12" s="0"/>
+      <c r="AD12" s="0"/>
+      <c r="AE12" s="0"/>
+      <c r="AF12" s="0"/>
+      <c r="AG12" s="0"/>
+      <c r="AH12" s="0"/>
+      <c r="AI12" s="0"/>
+      <c r="AJ12" s="0"/>
+      <c r="AK12" s="0"/>
+      <c r="AL12" s="0"/>
+      <c r="AM12" s="0"/>
+      <c r="AN12" s="0"/>
+      <c r="AO12" s="0"/>
+      <c r="AP12" s="0"/>
+      <c r="AQ12" s="0"/>
+      <c r="AR12" s="0"/>
+      <c r="AS12" s="0"/>
+      <c r="AT12" s="0"/>
+      <c r="AU12" s="0"/>
+      <c r="AV12" s="0"/>
+      <c r="AW12" s="0"/>
+      <c r="AX12" s="0"/>
+      <c r="AY12" s="0"/>
+      <c r="AZ12" s="0"/>
+      <c r="BA12" s="0"/>
+      <c r="BB12" s="0"/>
+      <c r="BC12" s="0"/>
+      <c r="BD12" s="0"/>
+      <c r="BE12" s="0"/>
+      <c r="BF12" s="0"/>
+      <c r="BG12" s="0"/>
+      <c r="BH12" s="0"/>
+      <c r="BI12" s="0"/>
+      <c r="BJ12" s="0"/>
+      <c r="BK12" s="0"/>
+      <c r="BL12" s="0"/>
+      <c r="BM12" s="0"/>
+      <c r="BN12" s="0"/>
+      <c r="BO12" s="0"/>
+      <c r="BP12" s="0"/>
+      <c r="BQ12" s="0"/>
+      <c r="BR12" s="0"/>
+      <c r="BS12" s="0"/>
+      <c r="BT12" s="0"/>
+      <c r="BU12" s="0"/>
+      <c r="BV12" s="0"/>
+      <c r="BW12" s="0"/>
+      <c r="BX12" s="0"/>
+      <c r="BY12" s="0"/>
+      <c r="BZ12" s="0"/>
+      <c r="CA12" s="0"/>
+      <c r="CB12" s="0"/>
+      <c r="CC12" s="0"/>
+      <c r="CD12" s="0"/>
+      <c r="CE12" s="0"/>
+      <c r="CF12" s="0"/>
+      <c r="CG12" s="0"/>
+      <c r="CH12" s="0"/>
+      <c r="CI12" s="0"/>
+      <c r="CJ12" s="0"/>
+      <c r="CK12" s="0"/>
+      <c r="CL12" s="0"/>
+      <c r="CM12" s="0"/>
+      <c r="CN12" s="0"/>
+      <c r="CO12" s="0"/>
+      <c r="CP12" s="0"/>
+      <c r="CQ12" s="0"/>
+      <c r="CR12" s="0"/>
+      <c r="CS12" s="0"/>
+      <c r="CT12" s="0"/>
+      <c r="CU12" s="0"/>
+      <c r="CV12" s="0"/>
+      <c r="CW12" s="0"/>
+      <c r="CX12" s="0"/>
+      <c r="CY12" s="0"/>
+      <c r="CZ12" s="0"/>
+      <c r="DA12" s="0"/>
+      <c r="DB12" s="0"/>
+      <c r="DC12" s="0"/>
+      <c r="DD12" s="0"/>
+      <c r="DE12" s="0"/>
+      <c r="DF12" s="0"/>
+      <c r="DG12" s="0"/>
+      <c r="DH12" s="0"/>
+      <c r="DI12" s="0"/>
+      <c r="DJ12" s="0"/>
+      <c r="DK12" s="0"/>
+      <c r="DL12" s="0"/>
+      <c r="DM12" s="0"/>
+      <c r="DN12" s="0"/>
+      <c r="DO12" s="0"/>
+      <c r="DP12" s="0"/>
+      <c r="DQ12" s="0"/>
+      <c r="DR12" s="0"/>
+      <c r="DS12" s="0"/>
+      <c r="DT12" s="0"/>
+      <c r="DU12" s="0"/>
+      <c r="DV12" s="0"/>
+      <c r="DW12" s="0"/>
+      <c r="DX12" s="0"/>
+      <c r="DY12" s="0"/>
+      <c r="DZ12" s="0"/>
+      <c r="EA12" s="0"/>
+      <c r="EB12" s="0"/>
+      <c r="EC12" s="0"/>
+      <c r="ED12" s="0"/>
+      <c r="EE12" s="0"/>
+      <c r="EF12" s="0"/>
+      <c r="EG12" s="0"/>
+      <c r="EH12" s="0"/>
+      <c r="EI12" s="0"/>
+      <c r="EJ12" s="0"/>
+      <c r="EK12" s="0"/>
+      <c r="EL12" s="0"/>
+      <c r="EM12" s="0"/>
+      <c r="EN12" s="0"/>
+      <c r="EO12" s="0"/>
+      <c r="EP12" s="0"/>
+      <c r="EQ12" s="0"/>
+      <c r="ER12" s="0"/>
+      <c r="ES12" s="0"/>
+      <c r="ET12" s="0"/>
+      <c r="EU12" s="0"/>
+      <c r="EV12" s="0"/>
+      <c r="EW12" s="0"/>
+      <c r="EX12" s="0"/>
+      <c r="EY12" s="0"/>
+      <c r="EZ12" s="0"/>
+      <c r="FA12" s="0"/>
+      <c r="FB12" s="0"/>
+      <c r="FC12" s="0"/>
+      <c r="FD12" s="0"/>
+      <c r="FE12" s="0"/>
+      <c r="FF12" s="0"/>
+      <c r="FG12" s="0"/>
+      <c r="FH12" s="0"/>
+      <c r="FI12" s="0"/>
+      <c r="FJ12" s="0"/>
+      <c r="FK12" s="0"/>
+      <c r="FL12" s="0"/>
+      <c r="FM12" s="0"/>
+      <c r="FN12" s="0"/>
+      <c r="FO12" s="0"/>
+      <c r="FP12" s="0"/>
+      <c r="FQ12" s="0"/>
+      <c r="FR12" s="0"/>
+      <c r="FS12" s="0"/>
+      <c r="FT12" s="0"/>
+      <c r="FU12" s="0"/>
+      <c r="FV12" s="0"/>
+      <c r="FW12" s="0"/>
+      <c r="FX12" s="0"/>
+      <c r="FY12" s="0"/>
+      <c r="FZ12" s="0"/>
+      <c r="GA12" s="0"/>
+      <c r="GB12" s="0"/>
+      <c r="GC12" s="0"/>
+      <c r="GD12" s="0"/>
+      <c r="GE12" s="0"/>
+      <c r="GF12" s="0"/>
+      <c r="GG12" s="0"/>
+      <c r="GH12" s="0"/>
+      <c r="GI12" s="0"/>
+      <c r="GJ12" s="0"/>
+      <c r="GK12" s="0"/>
+      <c r="GL12" s="0"/>
+      <c r="GM12" s="0"/>
+      <c r="GN12" s="0"/>
+      <c r="GO12" s="0"/>
+      <c r="GP12" s="0"/>
+      <c r="GQ12" s="0"/>
+      <c r="GR12" s="0"/>
+      <c r="GS12" s="0"/>
+      <c r="GT12" s="0"/>
+      <c r="GU12" s="0"/>
+      <c r="GV12" s="0"/>
+      <c r="GW12" s="0"/>
+      <c r="GX12" s="0"/>
+      <c r="GY12" s="0"/>
+      <c r="GZ12" s="0"/>
+      <c r="HA12" s="0"/>
+      <c r="HB12" s="0"/>
+      <c r="HC12" s="0"/>
+      <c r="HD12" s="0"/>
+      <c r="HE12" s="0"/>
+      <c r="HF12" s="0"/>
+      <c r="HG12" s="0"/>
+      <c r="HH12" s="0"/>
+      <c r="HI12" s="0"/>
+      <c r="HJ12" s="0"/>
+      <c r="HK12" s="0"/>
+      <c r="HL12" s="0"/>
+      <c r="HM12" s="0"/>
+      <c r="HN12" s="0"/>
+      <c r="HO12" s="0"/>
+      <c r="HP12" s="0"/>
+      <c r="HQ12" s="0"/>
+      <c r="HR12" s="0"/>
+      <c r="HS12" s="0"/>
+      <c r="HT12" s="0"/>
+      <c r="HU12" s="0"/>
+      <c r="HV12" s="0"/>
+      <c r="HW12" s="0"/>
+      <c r="HX12" s="0"/>
+      <c r="HY12" s="0"/>
+      <c r="HZ12" s="0"/>
+      <c r="IA12" s="0"/>
+      <c r="IB12" s="0"/>
+      <c r="IC12" s="0"/>
+      <c r="ID12" s="0"/>
+      <c r="IE12" s="0"/>
+      <c r="IF12" s="0"/>
+      <c r="IG12" s="0"/>
+      <c r="IH12" s="0"/>
+      <c r="II12" s="0"/>
+      <c r="IJ12" s="0"/>
+      <c r="IK12" s="0"/>
+      <c r="IL12" s="0"/>
+      <c r="IM12" s="0"/>
+      <c r="IN12" s="0"/>
+      <c r="IO12" s="0"/>
+      <c r="IP12" s="0"/>
+      <c r="IQ12" s="0"/>
+      <c r="IR12" s="0"/>
+      <c r="IS12" s="0"/>
+      <c r="IT12" s="0"/>
+      <c r="IU12" s="0"/>
+      <c r="IV12" s="0"/>
+      <c r="IW12" s="0"/>
     </row>
-    <row r="13" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:257" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="27" t="s">
         <v>33</v>
       </c>
@@ -1116,8 +3919,253 @@
         <f aca="false">K13*I13</f>
         <v>10</v>
       </c>
+      <c r="M13" s="0"/>
+      <c r="N13" s="0"/>
+      <c r="O13" s="0"/>
+      <c r="P13" s="0"/>
+      <c r="Q13" s="0"/>
+      <c r="R13" s="0"/>
+      <c r="S13" s="0"/>
+      <c r="T13" s="0"/>
+      <c r="U13" s="0"/>
+      <c r="V13" s="0"/>
+      <c r="W13" s="0"/>
+      <c r="X13" s="0"/>
+      <c r="Y13" s="0"/>
+      <c r="Z13" s="0"/>
+      <c r="AA13" s="0"/>
+      <c r="AB13" s="0"/>
+      <c r="AC13" s="0"/>
+      <c r="AD13" s="0"/>
+      <c r="AE13" s="0"/>
+      <c r="AF13" s="0"/>
+      <c r="AG13" s="0"/>
+      <c r="AH13" s="0"/>
+      <c r="AI13" s="0"/>
+      <c r="AJ13" s="0"/>
+      <c r="AK13" s="0"/>
+      <c r="AL13" s="0"/>
+      <c r="AM13" s="0"/>
+      <c r="AN13" s="0"/>
+      <c r="AO13" s="0"/>
+      <c r="AP13" s="0"/>
+      <c r="AQ13" s="0"/>
+      <c r="AR13" s="0"/>
+      <c r="AS13" s="0"/>
+      <c r="AT13" s="0"/>
+      <c r="AU13" s="0"/>
+      <c r="AV13" s="0"/>
+      <c r="AW13" s="0"/>
+      <c r="AX13" s="0"/>
+      <c r="AY13" s="0"/>
+      <c r="AZ13" s="0"/>
+      <c r="BA13" s="0"/>
+      <c r="BB13" s="0"/>
+      <c r="BC13" s="0"/>
+      <c r="BD13" s="0"/>
+      <c r="BE13" s="0"/>
+      <c r="BF13" s="0"/>
+      <c r="BG13" s="0"/>
+      <c r="BH13" s="0"/>
+      <c r="BI13" s="0"/>
+      <c r="BJ13" s="0"/>
+      <c r="BK13" s="0"/>
+      <c r="BL13" s="0"/>
+      <c r="BM13" s="0"/>
+      <c r="BN13" s="0"/>
+      <c r="BO13" s="0"/>
+      <c r="BP13" s="0"/>
+      <c r="BQ13" s="0"/>
+      <c r="BR13" s="0"/>
+      <c r="BS13" s="0"/>
+      <c r="BT13" s="0"/>
+      <c r="BU13" s="0"/>
+      <c r="BV13" s="0"/>
+      <c r="BW13" s="0"/>
+      <c r="BX13" s="0"/>
+      <c r="BY13" s="0"/>
+      <c r="BZ13" s="0"/>
+      <c r="CA13" s="0"/>
+      <c r="CB13" s="0"/>
+      <c r="CC13" s="0"/>
+      <c r="CD13" s="0"/>
+      <c r="CE13" s="0"/>
+      <c r="CF13" s="0"/>
+      <c r="CG13" s="0"/>
+      <c r="CH13" s="0"/>
+      <c r="CI13" s="0"/>
+      <c r="CJ13" s="0"/>
+      <c r="CK13" s="0"/>
+      <c r="CL13" s="0"/>
+      <c r="CM13" s="0"/>
+      <c r="CN13" s="0"/>
+      <c r="CO13" s="0"/>
+      <c r="CP13" s="0"/>
+      <c r="CQ13" s="0"/>
+      <c r="CR13" s="0"/>
+      <c r="CS13" s="0"/>
+      <c r="CT13" s="0"/>
+      <c r="CU13" s="0"/>
+      <c r="CV13" s="0"/>
+      <c r="CW13" s="0"/>
+      <c r="CX13" s="0"/>
+      <c r="CY13" s="0"/>
+      <c r="CZ13" s="0"/>
+      <c r="DA13" s="0"/>
+      <c r="DB13" s="0"/>
+      <c r="DC13" s="0"/>
+      <c r="DD13" s="0"/>
+      <c r="DE13" s="0"/>
+      <c r="DF13" s="0"/>
+      <c r="DG13" s="0"/>
+      <c r="DH13" s="0"/>
+      <c r="DI13" s="0"/>
+      <c r="DJ13" s="0"/>
+      <c r="DK13" s="0"/>
+      <c r="DL13" s="0"/>
+      <c r="DM13" s="0"/>
+      <c r="DN13" s="0"/>
+      <c r="DO13" s="0"/>
+      <c r="DP13" s="0"/>
+      <c r="DQ13" s="0"/>
+      <c r="DR13" s="0"/>
+      <c r="DS13" s="0"/>
+      <c r="DT13" s="0"/>
+      <c r="DU13" s="0"/>
+      <c r="DV13" s="0"/>
+      <c r="DW13" s="0"/>
+      <c r="DX13" s="0"/>
+      <c r="DY13" s="0"/>
+      <c r="DZ13" s="0"/>
+      <c r="EA13" s="0"/>
+      <c r="EB13" s="0"/>
+      <c r="EC13" s="0"/>
+      <c r="ED13" s="0"/>
+      <c r="EE13" s="0"/>
+      <c r="EF13" s="0"/>
+      <c r="EG13" s="0"/>
+      <c r="EH13" s="0"/>
+      <c r="EI13" s="0"/>
+      <c r="EJ13" s="0"/>
+      <c r="EK13" s="0"/>
+      <c r="EL13" s="0"/>
+      <c r="EM13" s="0"/>
+      <c r="EN13" s="0"/>
+      <c r="EO13" s="0"/>
+      <c r="EP13" s="0"/>
+      <c r="EQ13" s="0"/>
+      <c r="ER13" s="0"/>
+      <c r="ES13" s="0"/>
+      <c r="ET13" s="0"/>
+      <c r="EU13" s="0"/>
+      <c r="EV13" s="0"/>
+      <c r="EW13" s="0"/>
+      <c r="EX13" s="0"/>
+      <c r="EY13" s="0"/>
+      <c r="EZ13" s="0"/>
+      <c r="FA13" s="0"/>
+      <c r="FB13" s="0"/>
+      <c r="FC13" s="0"/>
+      <c r="FD13" s="0"/>
+      <c r="FE13" s="0"/>
+      <c r="FF13" s="0"/>
+      <c r="FG13" s="0"/>
+      <c r="FH13" s="0"/>
+      <c r="FI13" s="0"/>
+      <c r="FJ13" s="0"/>
+      <c r="FK13" s="0"/>
+      <c r="FL13" s="0"/>
+      <c r="FM13" s="0"/>
+      <c r="FN13" s="0"/>
+      <c r="FO13" s="0"/>
+      <c r="FP13" s="0"/>
+      <c r="FQ13" s="0"/>
+      <c r="FR13" s="0"/>
+      <c r="FS13" s="0"/>
+      <c r="FT13" s="0"/>
+      <c r="FU13" s="0"/>
+      <c r="FV13" s="0"/>
+      <c r="FW13" s="0"/>
+      <c r="FX13" s="0"/>
+      <c r="FY13" s="0"/>
+      <c r="FZ13" s="0"/>
+      <c r="GA13" s="0"/>
+      <c r="GB13" s="0"/>
+      <c r="GC13" s="0"/>
+      <c r="GD13" s="0"/>
+      <c r="GE13" s="0"/>
+      <c r="GF13" s="0"/>
+      <c r="GG13" s="0"/>
+      <c r="GH13" s="0"/>
+      <c r="GI13" s="0"/>
+      <c r="GJ13" s="0"/>
+      <c r="GK13" s="0"/>
+      <c r="GL13" s="0"/>
+      <c r="GM13" s="0"/>
+      <c r="GN13" s="0"/>
+      <c r="GO13" s="0"/>
+      <c r="GP13" s="0"/>
+      <c r="GQ13" s="0"/>
+      <c r="GR13" s="0"/>
+      <c r="GS13" s="0"/>
+      <c r="GT13" s="0"/>
+      <c r="GU13" s="0"/>
+      <c r="GV13" s="0"/>
+      <c r="GW13" s="0"/>
+      <c r="GX13" s="0"/>
+      <c r="GY13" s="0"/>
+      <c r="GZ13" s="0"/>
+      <c r="HA13" s="0"/>
+      <c r="HB13" s="0"/>
+      <c r="HC13" s="0"/>
+      <c r="HD13" s="0"/>
+      <c r="HE13" s="0"/>
+      <c r="HF13" s="0"/>
+      <c r="HG13" s="0"/>
+      <c r="HH13" s="0"/>
+      <c r="HI13" s="0"/>
+      <c r="HJ13" s="0"/>
+      <c r="HK13" s="0"/>
+      <c r="HL13" s="0"/>
+      <c r="HM13" s="0"/>
+      <c r="HN13" s="0"/>
+      <c r="HO13" s="0"/>
+      <c r="HP13" s="0"/>
+      <c r="HQ13" s="0"/>
+      <c r="HR13" s="0"/>
+      <c r="HS13" s="0"/>
+      <c r="HT13" s="0"/>
+      <c r="HU13" s="0"/>
+      <c r="HV13" s="0"/>
+      <c r="HW13" s="0"/>
+      <c r="HX13" s="0"/>
+      <c r="HY13" s="0"/>
+      <c r="HZ13" s="0"/>
+      <c r="IA13" s="0"/>
+      <c r="IB13" s="0"/>
+      <c r="IC13" s="0"/>
+      <c r="ID13" s="0"/>
+      <c r="IE13" s="0"/>
+      <c r="IF13" s="0"/>
+      <c r="IG13" s="0"/>
+      <c r="IH13" s="0"/>
+      <c r="II13" s="0"/>
+      <c r="IJ13" s="0"/>
+      <c r="IK13" s="0"/>
+      <c r="IL13" s="0"/>
+      <c r="IM13" s="0"/>
+      <c r="IN13" s="0"/>
+      <c r="IO13" s="0"/>
+      <c r="IP13" s="0"/>
+      <c r="IQ13" s="0"/>
+      <c r="IR13" s="0"/>
+      <c r="IS13" s="0"/>
+      <c r="IT13" s="0"/>
+      <c r="IU13" s="0"/>
+      <c r="IV13" s="0"/>
+      <c r="IW13" s="0"/>
     </row>
-    <row r="14" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:257" customFormat="false" ht="40.5" hidden="false" customHeight="1" outlineLevel="0" collapsed="false">
       <c r="A14" s="24" t="s">
         <v>36</v>
       </c>
@@ -1157,8 +4205,253 @@
         <f aca="false">K14*I14</f>
         <v>0</v>
       </c>
+      <c r="M14" s="0"/>
+      <c r="N14" s="0"/>
+      <c r="O14" s="0"/>
+      <c r="P14" s="0"/>
+      <c r="Q14" s="0"/>
+      <c r="R14" s="0"/>
+      <c r="S14" s="0"/>
+      <c r="T14" s="0"/>
+      <c r="U14" s="0"/>
+      <c r="V14" s="0"/>
+      <c r="W14" s="0"/>
+      <c r="X14" s="0"/>
+      <c r="Y14" s="0"/>
+      <c r="Z14" s="0"/>
+      <c r="AA14" s="0"/>
+      <c r="AB14" s="0"/>
+      <c r="AC14" s="0"/>
+      <c r="AD14" s="0"/>
+      <c r="AE14" s="0"/>
+      <c r="AF14" s="0"/>
+      <c r="AG14" s="0"/>
+      <c r="AH14" s="0"/>
+      <c r="AI14" s="0"/>
+      <c r="AJ14" s="0"/>
+      <c r="AK14" s="0"/>
+      <c r="AL14" s="0"/>
+      <c r="AM14" s="0"/>
+      <c r="AN14" s="0"/>
+      <c r="AO14" s="0"/>
+      <c r="AP14" s="0"/>
+      <c r="AQ14" s="0"/>
+      <c r="AR14" s="0"/>
+      <c r="AS14" s="0"/>
+      <c r="AT14" s="0"/>
+      <c r="AU14" s="0"/>
+      <c r="AV14" s="0"/>
+      <c r="AW14" s="0"/>
+      <c r="AX14" s="0"/>
+      <c r="AY14" s="0"/>
+      <c r="AZ14" s="0"/>
+      <c r="BA14" s="0"/>
+      <c r="BB14" s="0"/>
+      <c r="BC14" s="0"/>
+      <c r="BD14" s="0"/>
+      <c r="BE14" s="0"/>
+      <c r="BF14" s="0"/>
+      <c r="BG14" s="0"/>
+      <c r="BH14" s="0"/>
+      <c r="BI14" s="0"/>
+      <c r="BJ14" s="0"/>
+      <c r="BK14" s="0"/>
+      <c r="BL14" s="0"/>
+      <c r="BM14" s="0"/>
+      <c r="BN14" s="0"/>
+      <c r="BO14" s="0"/>
+      <c r="BP14" s="0"/>
+      <c r="BQ14" s="0"/>
+      <c r="BR14" s="0"/>
+      <c r="BS14" s="0"/>
+      <c r="BT14" s="0"/>
+      <c r="BU14" s="0"/>
+      <c r="BV14" s="0"/>
+      <c r="BW14" s="0"/>
+      <c r="BX14" s="0"/>
+      <c r="BY14" s="0"/>
+      <c r="BZ14" s="0"/>
+      <c r="CA14" s="0"/>
+      <c r="CB14" s="0"/>
+      <c r="CC14" s="0"/>
+      <c r="CD14" s="0"/>
+      <c r="CE14" s="0"/>
+      <c r="CF14" s="0"/>
+      <c r="CG14" s="0"/>
+      <c r="CH14" s="0"/>
+      <c r="CI14" s="0"/>
+      <c r="CJ14" s="0"/>
+      <c r="CK14" s="0"/>
+      <c r="CL14" s="0"/>
+      <c r="CM14" s="0"/>
+      <c r="CN14" s="0"/>
+      <c r="CO14" s="0"/>
+      <c r="CP14" s="0"/>
+      <c r="CQ14" s="0"/>
+      <c r="CR14" s="0"/>
+      <c r="CS14" s="0"/>
+      <c r="CT14" s="0"/>
+      <c r="CU14" s="0"/>
+      <c r="CV14" s="0"/>
+      <c r="CW14" s="0"/>
+      <c r="CX14" s="0"/>
+      <c r="CY14" s="0"/>
+      <c r="CZ14" s="0"/>
+      <c r="DA14" s="0"/>
+      <c r="DB14" s="0"/>
+      <c r="DC14" s="0"/>
+      <c r="DD14" s="0"/>
+      <c r="DE14" s="0"/>
+      <c r="DF14" s="0"/>
+      <c r="DG14" s="0"/>
+      <c r="DH14" s="0"/>
+      <c r="DI14" s="0"/>
+      <c r="DJ14" s="0"/>
+      <c r="DK14" s="0"/>
+      <c r="DL14" s="0"/>
+      <c r="DM14" s="0"/>
+      <c r="DN14" s="0"/>
+      <c r="DO14" s="0"/>
+      <c r="DP14" s="0"/>
+      <c r="DQ14" s="0"/>
+      <c r="DR14" s="0"/>
+      <c r="DS14" s="0"/>
+      <c r="DT14" s="0"/>
+      <c r="DU14" s="0"/>
+      <c r="DV14" s="0"/>
+      <c r="DW14" s="0"/>
+      <c r="DX14" s="0"/>
+      <c r="DY14" s="0"/>
+      <c r="DZ14" s="0"/>
+      <c r="EA14" s="0"/>
+      <c r="EB14" s="0"/>
+      <c r="EC14" s="0"/>
+      <c r="ED14" s="0"/>
+      <c r="EE14" s="0"/>
+      <c r="EF14" s="0"/>
+      <c r="EG14" s="0"/>
+      <c r="EH14" s="0"/>
+      <c r="EI14" s="0"/>
+      <c r="EJ14" s="0"/>
+      <c r="EK14" s="0"/>
+      <c r="EL14" s="0"/>
+      <c r="EM14" s="0"/>
+      <c r="EN14" s="0"/>
+      <c r="EO14" s="0"/>
+      <c r="EP14" s="0"/>
+      <c r="EQ14" s="0"/>
+      <c r="ER14" s="0"/>
+      <c r="ES14" s="0"/>
+      <c r="ET14" s="0"/>
+      <c r="EU14" s="0"/>
+      <c r="EV14" s="0"/>
+      <c r="EW14" s="0"/>
+      <c r="EX14" s="0"/>
+      <c r="EY14" s="0"/>
+      <c r="EZ14" s="0"/>
+      <c r="FA14" s="0"/>
+      <c r="FB14" s="0"/>
+      <c r="FC14" s="0"/>
+      <c r="FD14" s="0"/>
+      <c r="FE14" s="0"/>
+      <c r="FF14" s="0"/>
+      <c r="FG14" s="0"/>
+      <c r="FH14" s="0"/>
+      <c r="FI14" s="0"/>
+      <c r="FJ14" s="0"/>
+      <c r="FK14" s="0"/>
+      <c r="FL14" s="0"/>
+      <c r="FM14" s="0"/>
+      <c r="FN14" s="0"/>
+      <c r="FO14" s="0"/>
+      <c r="FP14" s="0"/>
+      <c r="FQ14" s="0"/>
+      <c r="FR14" s="0"/>
+      <c r="FS14" s="0"/>
+      <c r="FT14" s="0"/>
+      <c r="FU14" s="0"/>
+      <c r="FV14" s="0"/>
+      <c r="FW14" s="0"/>
+      <c r="FX14" s="0"/>
+      <c r="FY14" s="0"/>
+      <c r="FZ14" s="0"/>
+      <c r="GA14" s="0"/>
+      <c r="GB14" s="0"/>
+      <c r="GC14" s="0"/>
+      <c r="GD14" s="0"/>
+      <c r="GE14" s="0"/>
+      <c r="GF14" s="0"/>
+      <c r="GG14" s="0"/>
+      <c r="GH14" s="0"/>
+      <c r="GI14" s="0"/>
+      <c r="GJ14" s="0"/>
+      <c r="GK14" s="0"/>
+      <c r="GL14" s="0"/>
+      <c r="GM14" s="0"/>
+      <c r="GN14" s="0"/>
+      <c r="GO14" s="0"/>
+      <c r="GP14" s="0"/>
+      <c r="GQ14" s="0"/>
+      <c r="GR14" s="0"/>
+      <c r="GS14" s="0"/>
+      <c r="GT14" s="0"/>
+      <c r="GU14" s="0"/>
+      <c r="GV14" s="0"/>
+      <c r="GW14" s="0"/>
+      <c r="GX14" s="0"/>
+      <c r="GY14" s="0"/>
+      <c r="GZ14" s="0"/>
+      <c r="HA14" s="0"/>
+      <c r="HB14" s="0"/>
+      <c r="HC14" s="0"/>
+      <c r="HD14" s="0"/>
+      <c r="HE14" s="0"/>
+      <c r="HF14" s="0"/>
+      <c r="HG14" s="0"/>
+      <c r="HH14" s="0"/>
+      <c r="HI14" s="0"/>
+      <c r="HJ14" s="0"/>
+      <c r="HK14" s="0"/>
+      <c r="HL14" s="0"/>
+      <c r="HM14" s="0"/>
+      <c r="HN14" s="0"/>
+      <c r="HO14" s="0"/>
+      <c r="HP14" s="0"/>
+      <c r="HQ14" s="0"/>
+      <c r="HR14" s="0"/>
+      <c r="HS14" s="0"/>
+      <c r="HT14" s="0"/>
+      <c r="HU14" s="0"/>
+      <c r="HV14" s="0"/>
+      <c r="HW14" s="0"/>
+      <c r="HX14" s="0"/>
+      <c r="HY14" s="0"/>
+      <c r="HZ14" s="0"/>
+      <c r="IA14" s="0"/>
+      <c r="IB14" s="0"/>
+      <c r="IC14" s="0"/>
+      <c r="ID14" s="0"/>
+      <c r="IE14" s="0"/>
+      <c r="IF14" s="0"/>
+      <c r="IG14" s="0"/>
+      <c r="IH14" s="0"/>
+      <c r="II14" s="0"/>
+      <c r="IJ14" s="0"/>
+      <c r="IK14" s="0"/>
+      <c r="IL14" s="0"/>
+      <c r="IM14" s="0"/>
+      <c r="IN14" s="0"/>
+      <c r="IO14" s="0"/>
+      <c r="IP14" s="0"/>
+      <c r="IQ14" s="0"/>
+      <c r="IR14" s="0"/>
+      <c r="IS14" s="0"/>
+      <c r="IT14" s="0"/>
+      <c r="IU14" s="0"/>
+      <c r="IV14" s="0"/>
+      <c r="IW14" s="0"/>
     </row>
-    <row r="15" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:257" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="24"/>
       <c r="B15" s="24" t="s">
         <v>39</v>
@@ -1196,8 +4489,253 @@
         <f aca="false">K15*I15</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="M15" s="0"/>
+      <c r="N15" s="0"/>
+      <c r="O15" s="0"/>
+      <c r="P15" s="0"/>
+      <c r="Q15" s="0"/>
+      <c r="R15" s="0"/>
+      <c r="S15" s="0"/>
+      <c r="T15" s="0"/>
+      <c r="U15" s="0"/>
+      <c r="V15" s="0"/>
+      <c r="W15" s="0"/>
+      <c r="X15" s="0"/>
+      <c r="Y15" s="0"/>
+      <c r="Z15" s="0"/>
+      <c r="AA15" s="0"/>
+      <c r="AB15" s="0"/>
+      <c r="AC15" s="0"/>
+      <c r="AD15" s="0"/>
+      <c r="AE15" s="0"/>
+      <c r="AF15" s="0"/>
+      <c r="AG15" s="0"/>
+      <c r="AH15" s="0"/>
+      <c r="AI15" s="0"/>
+      <c r="AJ15" s="0"/>
+      <c r="AK15" s="0"/>
+      <c r="AL15" s="0"/>
+      <c r="AM15" s="0"/>
+      <c r="AN15" s="0"/>
+      <c r="AO15" s="0"/>
+      <c r="AP15" s="0"/>
+      <c r="AQ15" s="0"/>
+      <c r="AR15" s="0"/>
+      <c r="AS15" s="0"/>
+      <c r="AT15" s="0"/>
+      <c r="AU15" s="0"/>
+      <c r="AV15" s="0"/>
+      <c r="AW15" s="0"/>
+      <c r="AX15" s="0"/>
+      <c r="AY15" s="0"/>
+      <c r="AZ15" s="0"/>
+      <c r="BA15" s="0"/>
+      <c r="BB15" s="0"/>
+      <c r="BC15" s="0"/>
+      <c r="BD15" s="0"/>
+      <c r="BE15" s="0"/>
+      <c r="BF15" s="0"/>
+      <c r="BG15" s="0"/>
+      <c r="BH15" s="0"/>
+      <c r="BI15" s="0"/>
+      <c r="BJ15" s="0"/>
+      <c r="BK15" s="0"/>
+      <c r="BL15" s="0"/>
+      <c r="BM15" s="0"/>
+      <c r="BN15" s="0"/>
+      <c r="BO15" s="0"/>
+      <c r="BP15" s="0"/>
+      <c r="BQ15" s="0"/>
+      <c r="BR15" s="0"/>
+      <c r="BS15" s="0"/>
+      <c r="BT15" s="0"/>
+      <c r="BU15" s="0"/>
+      <c r="BV15" s="0"/>
+      <c r="BW15" s="0"/>
+      <c r="BX15" s="0"/>
+      <c r="BY15" s="0"/>
+      <c r="BZ15" s="0"/>
+      <c r="CA15" s="0"/>
+      <c r="CB15" s="0"/>
+      <c r="CC15" s="0"/>
+      <c r="CD15" s="0"/>
+      <c r="CE15" s="0"/>
+      <c r="CF15" s="0"/>
+      <c r="CG15" s="0"/>
+      <c r="CH15" s="0"/>
+      <c r="CI15" s="0"/>
+      <c r="CJ15" s="0"/>
+      <c r="CK15" s="0"/>
+      <c r="CL15" s="0"/>
+      <c r="CM15" s="0"/>
+      <c r="CN15" s="0"/>
+      <c r="CO15" s="0"/>
+      <c r="CP15" s="0"/>
+      <c r="CQ15" s="0"/>
+      <c r="CR15" s="0"/>
+      <c r="CS15" s="0"/>
+      <c r="CT15" s="0"/>
+      <c r="CU15" s="0"/>
+      <c r="CV15" s="0"/>
+      <c r="CW15" s="0"/>
+      <c r="CX15" s="0"/>
+      <c r="CY15" s="0"/>
+      <c r="CZ15" s="0"/>
+      <c r="DA15" s="0"/>
+      <c r="DB15" s="0"/>
+      <c r="DC15" s="0"/>
+      <c r="DD15" s="0"/>
+      <c r="DE15" s="0"/>
+      <c r="DF15" s="0"/>
+      <c r="DG15" s="0"/>
+      <c r="DH15" s="0"/>
+      <c r="DI15" s="0"/>
+      <c r="DJ15" s="0"/>
+      <c r="DK15" s="0"/>
+      <c r="DL15" s="0"/>
+      <c r="DM15" s="0"/>
+      <c r="DN15" s="0"/>
+      <c r="DO15" s="0"/>
+      <c r="DP15" s="0"/>
+      <c r="DQ15" s="0"/>
+      <c r="DR15" s="0"/>
+      <c r="DS15" s="0"/>
+      <c r="DT15" s="0"/>
+      <c r="DU15" s="0"/>
+      <c r="DV15" s="0"/>
+      <c r="DW15" s="0"/>
+      <c r="DX15" s="0"/>
+      <c r="DY15" s="0"/>
+      <c r="DZ15" s="0"/>
+      <c r="EA15" s="0"/>
+      <c r="EB15" s="0"/>
+      <c r="EC15" s="0"/>
+      <c r="ED15" s="0"/>
+      <c r="EE15" s="0"/>
+      <c r="EF15" s="0"/>
+      <c r="EG15" s="0"/>
+      <c r="EH15" s="0"/>
+      <c r="EI15" s="0"/>
+      <c r="EJ15" s="0"/>
+      <c r="EK15" s="0"/>
+      <c r="EL15" s="0"/>
+      <c r="EM15" s="0"/>
+      <c r="EN15" s="0"/>
+      <c r="EO15" s="0"/>
+      <c r="EP15" s="0"/>
+      <c r="EQ15" s="0"/>
+      <c r="ER15" s="0"/>
+      <c r="ES15" s="0"/>
+      <c r="ET15" s="0"/>
+      <c r="EU15" s="0"/>
+      <c r="EV15" s="0"/>
+      <c r="EW15" s="0"/>
+      <c r="EX15" s="0"/>
+      <c r="EY15" s="0"/>
+      <c r="EZ15" s="0"/>
+      <c r="FA15" s="0"/>
+      <c r="FB15" s="0"/>
+      <c r="FC15" s="0"/>
+      <c r="FD15" s="0"/>
+      <c r="FE15" s="0"/>
+      <c r="FF15" s="0"/>
+      <c r="FG15" s="0"/>
+      <c r="FH15" s="0"/>
+      <c r="FI15" s="0"/>
+      <c r="FJ15" s="0"/>
+      <c r="FK15" s="0"/>
+      <c r="FL15" s="0"/>
+      <c r="FM15" s="0"/>
+      <c r="FN15" s="0"/>
+      <c r="FO15" s="0"/>
+      <c r="FP15" s="0"/>
+      <c r="FQ15" s="0"/>
+      <c r="FR15" s="0"/>
+      <c r="FS15" s="0"/>
+      <c r="FT15" s="0"/>
+      <c r="FU15" s="0"/>
+      <c r="FV15" s="0"/>
+      <c r="FW15" s="0"/>
+      <c r="FX15" s="0"/>
+      <c r="FY15" s="0"/>
+      <c r="FZ15" s="0"/>
+      <c r="GA15" s="0"/>
+      <c r="GB15" s="0"/>
+      <c r="GC15" s="0"/>
+      <c r="GD15" s="0"/>
+      <c r="GE15" s="0"/>
+      <c r="GF15" s="0"/>
+      <c r="GG15" s="0"/>
+      <c r="GH15" s="0"/>
+      <c r="GI15" s="0"/>
+      <c r="GJ15" s="0"/>
+      <c r="GK15" s="0"/>
+      <c r="GL15" s="0"/>
+      <c r="GM15" s="0"/>
+      <c r="GN15" s="0"/>
+      <c r="GO15" s="0"/>
+      <c r="GP15" s="0"/>
+      <c r="GQ15" s="0"/>
+      <c r="GR15" s="0"/>
+      <c r="GS15" s="0"/>
+      <c r="GT15" s="0"/>
+      <c r="GU15" s="0"/>
+      <c r="GV15" s="0"/>
+      <c r="GW15" s="0"/>
+      <c r="GX15" s="0"/>
+      <c r="GY15" s="0"/>
+      <c r="GZ15" s="0"/>
+      <c r="HA15" s="0"/>
+      <c r="HB15" s="0"/>
+      <c r="HC15" s="0"/>
+      <c r="HD15" s="0"/>
+      <c r="HE15" s="0"/>
+      <c r="HF15" s="0"/>
+      <c r="HG15" s="0"/>
+      <c r="HH15" s="0"/>
+      <c r="HI15" s="0"/>
+      <c r="HJ15" s="0"/>
+      <c r="HK15" s="0"/>
+      <c r="HL15" s="0"/>
+      <c r="HM15" s="0"/>
+      <c r="HN15" s="0"/>
+      <c r="HO15" s="0"/>
+      <c r="HP15" s="0"/>
+      <c r="HQ15" s="0"/>
+      <c r="HR15" s="0"/>
+      <c r="HS15" s="0"/>
+      <c r="HT15" s="0"/>
+      <c r="HU15" s="0"/>
+      <c r="HV15" s="0"/>
+      <c r="HW15" s="0"/>
+      <c r="HX15" s="0"/>
+      <c r="HY15" s="0"/>
+      <c r="HZ15" s="0"/>
+      <c r="IA15" s="0"/>
+      <c r="IB15" s="0"/>
+      <c r="IC15" s="0"/>
+      <c r="ID15" s="0"/>
+      <c r="IE15" s="0"/>
+      <c r="IF15" s="0"/>
+      <c r="IG15" s="0"/>
+      <c r="IH15" s="0"/>
+      <c r="II15" s="0"/>
+      <c r="IJ15" s="0"/>
+      <c r="IK15" s="0"/>
+      <c r="IL15" s="0"/>
+      <c r="IM15" s="0"/>
+      <c r="IN15" s="0"/>
+      <c r="IO15" s="0"/>
+      <c r="IP15" s="0"/>
+      <c r="IQ15" s="0"/>
+      <c r="IR15" s="0"/>
+      <c r="IS15" s="0"/>
+      <c r="IT15" s="0"/>
+      <c r="IU15" s="0"/>
+      <c r="IV15" s="0"/>
+      <c r="IW15" s="0"/>
     </row>
-    <row r="16" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:257" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="24"/>
       <c r="B16" s="24" t="s">
         <v>41</v>
@@ -1235,8 +4773,253 @@
         <f aca="false">K16*I16</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="M16" s="0"/>
+      <c r="N16" s="0"/>
+      <c r="O16" s="0"/>
+      <c r="P16" s="0"/>
+      <c r="Q16" s="0"/>
+      <c r="R16" s="0"/>
+      <c r="S16" s="0"/>
+      <c r="T16" s="0"/>
+      <c r="U16" s="0"/>
+      <c r="V16" s="0"/>
+      <c r="W16" s="0"/>
+      <c r="X16" s="0"/>
+      <c r="Y16" s="0"/>
+      <c r="Z16" s="0"/>
+      <c r="AA16" s="0"/>
+      <c r="AB16" s="0"/>
+      <c r="AC16" s="0"/>
+      <c r="AD16" s="0"/>
+      <c r="AE16" s="0"/>
+      <c r="AF16" s="0"/>
+      <c r="AG16" s="0"/>
+      <c r="AH16" s="0"/>
+      <c r="AI16" s="0"/>
+      <c r="AJ16" s="0"/>
+      <c r="AK16" s="0"/>
+      <c r="AL16" s="0"/>
+      <c r="AM16" s="0"/>
+      <c r="AN16" s="0"/>
+      <c r="AO16" s="0"/>
+      <c r="AP16" s="0"/>
+      <c r="AQ16" s="0"/>
+      <c r="AR16" s="0"/>
+      <c r="AS16" s="0"/>
+      <c r="AT16" s="0"/>
+      <c r="AU16" s="0"/>
+      <c r="AV16" s="0"/>
+      <c r="AW16" s="0"/>
+      <c r="AX16" s="0"/>
+      <c r="AY16" s="0"/>
+      <c r="AZ16" s="0"/>
+      <c r="BA16" s="0"/>
+      <c r="BB16" s="0"/>
+      <c r="BC16" s="0"/>
+      <c r="BD16" s="0"/>
+      <c r="BE16" s="0"/>
+      <c r="BF16" s="0"/>
+      <c r="BG16" s="0"/>
+      <c r="BH16" s="0"/>
+      <c r="BI16" s="0"/>
+      <c r="BJ16" s="0"/>
+      <c r="BK16" s="0"/>
+      <c r="BL16" s="0"/>
+      <c r="BM16" s="0"/>
+      <c r="BN16" s="0"/>
+      <c r="BO16" s="0"/>
+      <c r="BP16" s="0"/>
+      <c r="BQ16" s="0"/>
+      <c r="BR16" s="0"/>
+      <c r="BS16" s="0"/>
+      <c r="BT16" s="0"/>
+      <c r="BU16" s="0"/>
+      <c r="BV16" s="0"/>
+      <c r="BW16" s="0"/>
+      <c r="BX16" s="0"/>
+      <c r="BY16" s="0"/>
+      <c r="BZ16" s="0"/>
+      <c r="CA16" s="0"/>
+      <c r="CB16" s="0"/>
+      <c r="CC16" s="0"/>
+      <c r="CD16" s="0"/>
+      <c r="CE16" s="0"/>
+      <c r="CF16" s="0"/>
+      <c r="CG16" s="0"/>
+      <c r="CH16" s="0"/>
+      <c r="CI16" s="0"/>
+      <c r="CJ16" s="0"/>
+      <c r="CK16" s="0"/>
+      <c r="CL16" s="0"/>
+      <c r="CM16" s="0"/>
+      <c r="CN16" s="0"/>
+      <c r="CO16" s="0"/>
+      <c r="CP16" s="0"/>
+      <c r="CQ16" s="0"/>
+      <c r="CR16" s="0"/>
+      <c r="CS16" s="0"/>
+      <c r="CT16" s="0"/>
+      <c r="CU16" s="0"/>
+      <c r="CV16" s="0"/>
+      <c r="CW16" s="0"/>
+      <c r="CX16" s="0"/>
+      <c r="CY16" s="0"/>
+      <c r="CZ16" s="0"/>
+      <c r="DA16" s="0"/>
+      <c r="DB16" s="0"/>
+      <c r="DC16" s="0"/>
+      <c r="DD16" s="0"/>
+      <c r="DE16" s="0"/>
+      <c r="DF16" s="0"/>
+      <c r="DG16" s="0"/>
+      <c r="DH16" s="0"/>
+      <c r="DI16" s="0"/>
+      <c r="DJ16" s="0"/>
+      <c r="DK16" s="0"/>
+      <c r="DL16" s="0"/>
+      <c r="DM16" s="0"/>
+      <c r="DN16" s="0"/>
+      <c r="DO16" s="0"/>
+      <c r="DP16" s="0"/>
+      <c r="DQ16" s="0"/>
+      <c r="DR16" s="0"/>
+      <c r="DS16" s="0"/>
+      <c r="DT16" s="0"/>
+      <c r="DU16" s="0"/>
+      <c r="DV16" s="0"/>
+      <c r="DW16" s="0"/>
+      <c r="DX16" s="0"/>
+      <c r="DY16" s="0"/>
+      <c r="DZ16" s="0"/>
+      <c r="EA16" s="0"/>
+      <c r="EB16" s="0"/>
+      <c r="EC16" s="0"/>
+      <c r="ED16" s="0"/>
+      <c r="EE16" s="0"/>
+      <c r="EF16" s="0"/>
+      <c r="EG16" s="0"/>
+      <c r="EH16" s="0"/>
+      <c r="EI16" s="0"/>
+      <c r="EJ16" s="0"/>
+      <c r="EK16" s="0"/>
+      <c r="EL16" s="0"/>
+      <c r="EM16" s="0"/>
+      <c r="EN16" s="0"/>
+      <c r="EO16" s="0"/>
+      <c r="EP16" s="0"/>
+      <c r="EQ16" s="0"/>
+      <c r="ER16" s="0"/>
+      <c r="ES16" s="0"/>
+      <c r="ET16" s="0"/>
+      <c r="EU16" s="0"/>
+      <c r="EV16" s="0"/>
+      <c r="EW16" s="0"/>
+      <c r="EX16" s="0"/>
+      <c r="EY16" s="0"/>
+      <c r="EZ16" s="0"/>
+      <c r="FA16" s="0"/>
+      <c r="FB16" s="0"/>
+      <c r="FC16" s="0"/>
+      <c r="FD16" s="0"/>
+      <c r="FE16" s="0"/>
+      <c r="FF16" s="0"/>
+      <c r="FG16" s="0"/>
+      <c r="FH16" s="0"/>
+      <c r="FI16" s="0"/>
+      <c r="FJ16" s="0"/>
+      <c r="FK16" s="0"/>
+      <c r="FL16" s="0"/>
+      <c r="FM16" s="0"/>
+      <c r="FN16" s="0"/>
+      <c r="FO16" s="0"/>
+      <c r="FP16" s="0"/>
+      <c r="FQ16" s="0"/>
+      <c r="FR16" s="0"/>
+      <c r="FS16" s="0"/>
+      <c r="FT16" s="0"/>
+      <c r="FU16" s="0"/>
+      <c r="FV16" s="0"/>
+      <c r="FW16" s="0"/>
+      <c r="FX16" s="0"/>
+      <c r="FY16" s="0"/>
+      <c r="FZ16" s="0"/>
+      <c r="GA16" s="0"/>
+      <c r="GB16" s="0"/>
+      <c r="GC16" s="0"/>
+      <c r="GD16" s="0"/>
+      <c r="GE16" s="0"/>
+      <c r="GF16" s="0"/>
+      <c r="GG16" s="0"/>
+      <c r="GH16" s="0"/>
+      <c r="GI16" s="0"/>
+      <c r="GJ16" s="0"/>
+      <c r="GK16" s="0"/>
+      <c r="GL16" s="0"/>
+      <c r="GM16" s="0"/>
+      <c r="GN16" s="0"/>
+      <c r="GO16" s="0"/>
+      <c r="GP16" s="0"/>
+      <c r="GQ16" s="0"/>
+      <c r="GR16" s="0"/>
+      <c r="GS16" s="0"/>
+      <c r="GT16" s="0"/>
+      <c r="GU16" s="0"/>
+      <c r="GV16" s="0"/>
+      <c r="GW16" s="0"/>
+      <c r="GX16" s="0"/>
+      <c r="GY16" s="0"/>
+      <c r="GZ16" s="0"/>
+      <c r="HA16" s="0"/>
+      <c r="HB16" s="0"/>
+      <c r="HC16" s="0"/>
+      <c r="HD16" s="0"/>
+      <c r="HE16" s="0"/>
+      <c r="HF16" s="0"/>
+      <c r="HG16" s="0"/>
+      <c r="HH16" s="0"/>
+      <c r="HI16" s="0"/>
+      <c r="HJ16" s="0"/>
+      <c r="HK16" s="0"/>
+      <c r="HL16" s="0"/>
+      <c r="HM16" s="0"/>
+      <c r="HN16" s="0"/>
+      <c r="HO16" s="0"/>
+      <c r="HP16" s="0"/>
+      <c r="HQ16" s="0"/>
+      <c r="HR16" s="0"/>
+      <c r="HS16" s="0"/>
+      <c r="HT16" s="0"/>
+      <c r="HU16" s="0"/>
+      <c r="HV16" s="0"/>
+      <c r="HW16" s="0"/>
+      <c r="HX16" s="0"/>
+      <c r="HY16" s="0"/>
+      <c r="HZ16" s="0"/>
+      <c r="IA16" s="0"/>
+      <c r="IB16" s="0"/>
+      <c r="IC16" s="0"/>
+      <c r="ID16" s="0"/>
+      <c r="IE16" s="0"/>
+      <c r="IF16" s="0"/>
+      <c r="IG16" s="0"/>
+      <c r="IH16" s="0"/>
+      <c r="II16" s="0"/>
+      <c r="IJ16" s="0"/>
+      <c r="IK16" s="0"/>
+      <c r="IL16" s="0"/>
+      <c r="IM16" s="0"/>
+      <c r="IN16" s="0"/>
+      <c r="IO16" s="0"/>
+      <c r="IP16" s="0"/>
+      <c r="IQ16" s="0"/>
+      <c r="IR16" s="0"/>
+      <c r="IS16" s="0"/>
+      <c r="IT16" s="0"/>
+      <c r="IU16" s="0"/>
+      <c r="IV16" s="0"/>
+      <c r="IW16" s="0"/>
     </row>
-    <row r="17" customFormat="false" ht="80.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:257" customFormat="false" ht="80.25" hidden="false" customHeight="1" outlineLevel="0" collapsed="false">
       <c r="A17" s="29" t="s">
         <v>43</v>
       </c>
@@ -1274,8 +5057,253 @@
         <f aca="false">K17*I17</f>
         <v>15</v>
       </c>
+      <c r="M17" s="0"/>
+      <c r="N17" s="0"/>
+      <c r="O17" s="0"/>
+      <c r="P17" s="0"/>
+      <c r="Q17" s="0"/>
+      <c r="R17" s="0"/>
+      <c r="S17" s="0"/>
+      <c r="T17" s="0"/>
+      <c r="U17" s="0"/>
+      <c r="V17" s="0"/>
+      <c r="W17" s="0"/>
+      <c r="X17" s="0"/>
+      <c r="Y17" s="0"/>
+      <c r="Z17" s="0"/>
+      <c r="AA17" s="0"/>
+      <c r="AB17" s="0"/>
+      <c r="AC17" s="0"/>
+      <c r="AD17" s="0"/>
+      <c r="AE17" s="0"/>
+      <c r="AF17" s="0"/>
+      <c r="AG17" s="0"/>
+      <c r="AH17" s="0"/>
+      <c r="AI17" s="0"/>
+      <c r="AJ17" s="0"/>
+      <c r="AK17" s="0"/>
+      <c r="AL17" s="0"/>
+      <c r="AM17" s="0"/>
+      <c r="AN17" s="0"/>
+      <c r="AO17" s="0"/>
+      <c r="AP17" s="0"/>
+      <c r="AQ17" s="0"/>
+      <c r="AR17" s="0"/>
+      <c r="AS17" s="0"/>
+      <c r="AT17" s="0"/>
+      <c r="AU17" s="0"/>
+      <c r="AV17" s="0"/>
+      <c r="AW17" s="0"/>
+      <c r="AX17" s="0"/>
+      <c r="AY17" s="0"/>
+      <c r="AZ17" s="0"/>
+      <c r="BA17" s="0"/>
+      <c r="BB17" s="0"/>
+      <c r="BC17" s="0"/>
+      <c r="BD17" s="0"/>
+      <c r="BE17" s="0"/>
+      <c r="BF17" s="0"/>
+      <c r="BG17" s="0"/>
+      <c r="BH17" s="0"/>
+      <c r="BI17" s="0"/>
+      <c r="BJ17" s="0"/>
+      <c r="BK17" s="0"/>
+      <c r="BL17" s="0"/>
+      <c r="BM17" s="0"/>
+      <c r="BN17" s="0"/>
+      <c r="BO17" s="0"/>
+      <c r="BP17" s="0"/>
+      <c r="BQ17" s="0"/>
+      <c r="BR17" s="0"/>
+      <c r="BS17" s="0"/>
+      <c r="BT17" s="0"/>
+      <c r="BU17" s="0"/>
+      <c r="BV17" s="0"/>
+      <c r="BW17" s="0"/>
+      <c r="BX17" s="0"/>
+      <c r="BY17" s="0"/>
+      <c r="BZ17" s="0"/>
+      <c r="CA17" s="0"/>
+      <c r="CB17" s="0"/>
+      <c r="CC17" s="0"/>
+      <c r="CD17" s="0"/>
+      <c r="CE17" s="0"/>
+      <c r="CF17" s="0"/>
+      <c r="CG17" s="0"/>
+      <c r="CH17" s="0"/>
+      <c r="CI17" s="0"/>
+      <c r="CJ17" s="0"/>
+      <c r="CK17" s="0"/>
+      <c r="CL17" s="0"/>
+      <c r="CM17" s="0"/>
+      <c r="CN17" s="0"/>
+      <c r="CO17" s="0"/>
+      <c r="CP17" s="0"/>
+      <c r="CQ17" s="0"/>
+      <c r="CR17" s="0"/>
+      <c r="CS17" s="0"/>
+      <c r="CT17" s="0"/>
+      <c r="CU17" s="0"/>
+      <c r="CV17" s="0"/>
+      <c r="CW17" s="0"/>
+      <c r="CX17" s="0"/>
+      <c r="CY17" s="0"/>
+      <c r="CZ17" s="0"/>
+      <c r="DA17" s="0"/>
+      <c r="DB17" s="0"/>
+      <c r="DC17" s="0"/>
+      <c r="DD17" s="0"/>
+      <c r="DE17" s="0"/>
+      <c r="DF17" s="0"/>
+      <c r="DG17" s="0"/>
+      <c r="DH17" s="0"/>
+      <c r="DI17" s="0"/>
+      <c r="DJ17" s="0"/>
+      <c r="DK17" s="0"/>
+      <c r="DL17" s="0"/>
+      <c r="DM17" s="0"/>
+      <c r="DN17" s="0"/>
+      <c r="DO17" s="0"/>
+      <c r="DP17" s="0"/>
+      <c r="DQ17" s="0"/>
+      <c r="DR17" s="0"/>
+      <c r="DS17" s="0"/>
+      <c r="DT17" s="0"/>
+      <c r="DU17" s="0"/>
+      <c r="DV17" s="0"/>
+      <c r="DW17" s="0"/>
+      <c r="DX17" s="0"/>
+      <c r="DY17" s="0"/>
+      <c r="DZ17" s="0"/>
+      <c r="EA17" s="0"/>
+      <c r="EB17" s="0"/>
+      <c r="EC17" s="0"/>
+      <c r="ED17" s="0"/>
+      <c r="EE17" s="0"/>
+      <c r="EF17" s="0"/>
+      <c r="EG17" s="0"/>
+      <c r="EH17" s="0"/>
+      <c r="EI17" s="0"/>
+      <c r="EJ17" s="0"/>
+      <c r="EK17" s="0"/>
+      <c r="EL17" s="0"/>
+      <c r="EM17" s="0"/>
+      <c r="EN17" s="0"/>
+      <c r="EO17" s="0"/>
+      <c r="EP17" s="0"/>
+      <c r="EQ17" s="0"/>
+      <c r="ER17" s="0"/>
+      <c r="ES17" s="0"/>
+      <c r="ET17" s="0"/>
+      <c r="EU17" s="0"/>
+      <c r="EV17" s="0"/>
+      <c r="EW17" s="0"/>
+      <c r="EX17" s="0"/>
+      <c r="EY17" s="0"/>
+      <c r="EZ17" s="0"/>
+      <c r="FA17" s="0"/>
+      <c r="FB17" s="0"/>
+      <c r="FC17" s="0"/>
+      <c r="FD17" s="0"/>
+      <c r="FE17" s="0"/>
+      <c r="FF17" s="0"/>
+      <c r="FG17" s="0"/>
+      <c r="FH17" s="0"/>
+      <c r="FI17" s="0"/>
+      <c r="FJ17" s="0"/>
+      <c r="FK17" s="0"/>
+      <c r="FL17" s="0"/>
+      <c r="FM17" s="0"/>
+      <c r="FN17" s="0"/>
+      <c r="FO17" s="0"/>
+      <c r="FP17" s="0"/>
+      <c r="FQ17" s="0"/>
+      <c r="FR17" s="0"/>
+      <c r="FS17" s="0"/>
+      <c r="FT17" s="0"/>
+      <c r="FU17" s="0"/>
+      <c r="FV17" s="0"/>
+      <c r="FW17" s="0"/>
+      <c r="FX17" s="0"/>
+      <c r="FY17" s="0"/>
+      <c r="FZ17" s="0"/>
+      <c r="GA17" s="0"/>
+      <c r="GB17" s="0"/>
+      <c r="GC17" s="0"/>
+      <c r="GD17" s="0"/>
+      <c r="GE17" s="0"/>
+      <c r="GF17" s="0"/>
+      <c r="GG17" s="0"/>
+      <c r="GH17" s="0"/>
+      <c r="GI17" s="0"/>
+      <c r="GJ17" s="0"/>
+      <c r="GK17" s="0"/>
+      <c r="GL17" s="0"/>
+      <c r="GM17" s="0"/>
+      <c r="GN17" s="0"/>
+      <c r="GO17" s="0"/>
+      <c r="GP17" s="0"/>
+      <c r="GQ17" s="0"/>
+      <c r="GR17" s="0"/>
+      <c r="GS17" s="0"/>
+      <c r="GT17" s="0"/>
+      <c r="GU17" s="0"/>
+      <c r="GV17" s="0"/>
+      <c r="GW17" s="0"/>
+      <c r="GX17" s="0"/>
+      <c r="GY17" s="0"/>
+      <c r="GZ17" s="0"/>
+      <c r="HA17" s="0"/>
+      <c r="HB17" s="0"/>
+      <c r="HC17" s="0"/>
+      <c r="HD17" s="0"/>
+      <c r="HE17" s="0"/>
+      <c r="HF17" s="0"/>
+      <c r="HG17" s="0"/>
+      <c r="HH17" s="0"/>
+      <c r="HI17" s="0"/>
+      <c r="HJ17" s="0"/>
+      <c r="HK17" s="0"/>
+      <c r="HL17" s="0"/>
+      <c r="HM17" s="0"/>
+      <c r="HN17" s="0"/>
+      <c r="HO17" s="0"/>
+      <c r="HP17" s="0"/>
+      <c r="HQ17" s="0"/>
+      <c r="HR17" s="0"/>
+      <c r="HS17" s="0"/>
+      <c r="HT17" s="0"/>
+      <c r="HU17" s="0"/>
+      <c r="HV17" s="0"/>
+      <c r="HW17" s="0"/>
+      <c r="HX17" s="0"/>
+      <c r="HY17" s="0"/>
+      <c r="HZ17" s="0"/>
+      <c r="IA17" s="0"/>
+      <c r="IB17" s="0"/>
+      <c r="IC17" s="0"/>
+      <c r="ID17" s="0"/>
+      <c r="IE17" s="0"/>
+      <c r="IF17" s="0"/>
+      <c r="IG17" s="0"/>
+      <c r="IH17" s="0"/>
+      <c r="II17" s="0"/>
+      <c r="IJ17" s="0"/>
+      <c r="IK17" s="0"/>
+      <c r="IL17" s="0"/>
+      <c r="IM17" s="0"/>
+      <c r="IN17" s="0"/>
+      <c r="IO17" s="0"/>
+      <c r="IP17" s="0"/>
+      <c r="IQ17" s="0"/>
+      <c r="IR17" s="0"/>
+      <c r="IS17" s="0"/>
+      <c r="IT17" s="0"/>
+      <c r="IU17" s="0"/>
+      <c r="IV17" s="0"/>
+      <c r="IW17" s="0"/>
     </row>
-    <row r="18" s="33" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:12" s="33" customFormat="1" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="30" t="s">
         <v>47</v>
       </c>
@@ -1297,7 +5325,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:12" customFormat="false" ht="54" hidden="false" customHeight="1" outlineLevel="0" collapsed="false">
       <c r="A19" s="34" t="s">
         <v>48</v>
       </c>
@@ -1336,7 +5364,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:12" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="34"/>
       <c r="B20" s="34" t="s">
         <v>51</v>
@@ -1373,7 +5401,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="34"/>
       <c r="B21" s="34" t="s">
         <v>54</v>
@@ -1410,7 +5438,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="30" t="s">
         <v>47</v>
       </c>
@@ -1445,36 +5473,38 @@
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="A19:A21"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <printOptions horizontalCentered="false" verticalCentered="false" headings="false" gridLines="false" gridLinesSet="1"/>
   <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+  <headerFooter differentOddEven="false" differentFirst="false">
+    <oddHeader val=""/>
+    <oddFooter val=""/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mv="urn:schemas-microsoft-com:mac:vml">
   <sheetPr filterMode="false">
-    <tabColor rgb="00FFFFFF"/>
+    <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="1:1048576"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="false" tabSelected="false" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="false" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="Z0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="20.6887755102041"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.2704081632653"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.9795918367347"/>
+    <col min="1" max="2" width="20.6887755102041" style="0" hidden="false" collapsed="false"/>
+    <col min="3" max="3" width="15.2704081632653" style="0" hidden="false" collapsed="false"/>
+    <col min="4" max="4" width="8.72959183673469" style="0" hidden="false" collapsed="false"/>
+    <col min="5" max="5" width="18.9795918367347" style="0" hidden="false" collapsed="false"/>
+    <col min="6" max="1025" width="8.72959183673469" style="0" hidden="false" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="38" t="s">
         <v>56</v>
       </c>
@@ -1494,7 +5524,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="40" t="s">
         <v>62</v>
       </c>
@@ -1519,7 +5549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="38" t="s">
         <v>25</v>
       </c>
@@ -1533,7 +5563,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="42"/>
       <c r="B4" s="42" t="n">
         <v>5.5</v>
@@ -1547,7 +5577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="42" t="s">
         <v>66</v>
       </c>
@@ -1558,7 +5588,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="42"/>
       <c r="B6" s="42"/>
       <c r="C6" s="42"/>
@@ -1567,7 +5597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="38" t="s">
         <v>67</v>
       </c>
@@ -1579,7 +5609,7 @@
       </c>
       <c r="D7" s="42"/>
     </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="40"/>
       <c r="B8" s="41" t="n">
         <f aca="false">SUM(COUNTIFS(Data!C2:C200,"=Meetings",Data!N2:N200,"="&amp;""),COUNTIFS(Data!C2:C200,"=Support",Data!N2:N200,"="&amp;""))</f>
@@ -1594,13 +5624,13 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="40"/>
       <c r="B9" s="41"/>
       <c r="C9" s="42"/>
       <c r="D9" s="42"/>
     </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="38" t="s">
         <v>69</v>
       </c>
@@ -1612,7 +5642,7 @@
       </c>
       <c r="D10" s="42"/>
     </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="42"/>
       <c r="B11" s="0" t="n">
         <f aca="false">COUNTIFS(Data!N2:N200,"&lt;15-Apr-2015",Data!E2:E200,"&lt;&gt;Closed",Data!E2:E200,"&lt;&gt;Resolved")</f>
@@ -1627,7 +5657,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="38" t="s">
         <v>70</v>
       </c>
@@ -1639,7 +5669,7 @@
       </c>
       <c r="D12" s="42"/>
     </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="40" t="s">
         <v>71</v>
       </c>
@@ -1656,7 +5686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="40" t="s">
         <v>72</v>
       </c>
@@ -1673,7 +5703,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="40" t="s">
         <v>73</v>
       </c>
@@ -1691,58 +5721,561 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D6,D13:D15,D11,D8">
-    <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>NOT(ISERROR(SEARCH("Green",DataSheet!D6)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6,D13:D15,D11,D8">
-    <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>NOT(ISERROR(SEARCH("Red",DataSheet!D6)))</formula>
-    </cfRule>
-    <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>NOT(ISERROR(SEARCH("Amber",DataSheet!D6)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <printOptions horizontalCentered="false" verticalCentered="false" headings="false" gridLines="false" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+  <headerFooter differentOddEven="false" differentFirst="false">
+    <oddHeader val=""/>
+    <oddFooter val=""/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mv="urn:schemas-microsoft-com:mac:vml">
   <sheetPr filterMode="false">
-    <tabColor rgb="00FFFFFF"/>
+    <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="AU1:AW1"/>
+  <dimension ref="A1:BE3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z3" activeCellId="0" sqref="1:1048576"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="false" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="false" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J11" activeCellId="0" sqref="Z0"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.65"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="25.9744897959184"/>
+    <col min="1" max="11" width="8.72959183673469" style="0" hidden="false" collapsed="false"/>
+    <col min="12" max="12" width="25.9744897959184" style="0" hidden="false" collapsed="false"/>
+    <col min="13" max="1025" width="8.72959183673469" style="0" hidden="false" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AU1" s="45"/>
-      <c r="AV1" s="45"/>
-      <c r="AW1" s="45"/>
+    <row r="1" spans="1:57" customFormat="false">
+      <c r="A1" s="0" t="str">
+        <v>#</v>
+      </c>
+      <c r="B1" s="0" t="str">
+        <v>Project</v>
+      </c>
+      <c r="C1" s="0" t="str">
+        <v>Tracker</v>
+      </c>
+      <c r="D1" s="0" t="str">
+        <v>Parent task</v>
+      </c>
+      <c r="E1" s="0" t="str">
+        <v>Status</v>
+      </c>
+      <c r="F1" s="0" t="str">
+        <v>Priority</v>
+      </c>
+      <c r="G1" s="0" t="str">
+        <v>Subject</v>
+      </c>
+      <c r="H1" s="0" t="str">
+        <v>Author</v>
+      </c>
+      <c r="I1" s="0" t="str">
+        <v>Assignee</v>
+      </c>
+      <c r="J1" s="0" t="str">
+        <v>Updated</v>
+      </c>
+      <c r="K1" s="0" t="str">
+        <v>Category</v>
+      </c>
+      <c r="L1" s="0" t="str">
+        <v>Target version</v>
+      </c>
+      <c r="M1" s="0" t="str">
+        <v>Start date</v>
+      </c>
+      <c r="N1" s="0" t="str">
+        <v>Due date</v>
+      </c>
+      <c r="O1" s="0" t="str">
+        <v>Estimated time</v>
+      </c>
+      <c r="P1" s="0" t="str">
+        <v>% Done</v>
+      </c>
+      <c r="Q1" s="0" t="str">
+        <v>Created</v>
+      </c>
+      <c r="R1" s="0" t="str">
+        <v>Closed</v>
+      </c>
+      <c r="S1" s="0" t="str">
+        <v>Related issues</v>
+      </c>
+      <c r="T1" s="0" t="str">
+        <v>Description</v>
+      </c>
+      <c r="U1" s="0" t="str">
+        <v>Comment</v>
+      </c>
+      <c r="V1" s="0" t="str">
+        <v>Clarification</v>
+      </c>
+      <c r="W1" s="0" t="str">
+        <v>ExternalID</v>
+      </c>
+      <c r="X1" s="0" t="str">
+        <v>Actual start date</v>
+      </c>
+      <c r="Y1" s="0" t="str">
+        <v>Severity</v>
+      </c>
+      <c r="Z1" s="0" t="str">
+        <v>Actual End date</v>
+      </c>
+      <c r="AA1" s="0" t="str">
+        <v>Occured</v>
+      </c>
+      <c r="AB1" s="0" t="str">
+        <v>Impact</v>
+      </c>
+      <c r="AC1" s="0" t="str">
+        <v>Impact Descrption</v>
+      </c>
+      <c r="AD1" s="0" t="str">
+        <v>Probability</v>
+      </c>
+      <c r="AE1" s="0" t="str">
+        <v>Score</v>
+      </c>
+      <c r="AF1" s="0" t="str">
+        <v>Contingency plan</v>
+      </c>
+      <c r="AG1" s="0" t="str">
+        <v>NC Type</v>
+      </c>
+      <c r="AH1" s="0" t="str">
+        <v>RCA</v>
+      </c>
+      <c r="AI1" s="0" t="str">
+        <v>Corrective Action</v>
+      </c>
+      <c r="AJ1" s="0" t="str">
+        <v>Outcome</v>
+      </c>
+      <c r="AK1" s="0" t="str">
+        <v>ISO Pointer</v>
+      </c>
+      <c r="AL1" s="0" t="str">
+        <v>W3H Analysis/Impact Result</v>
+      </c>
+      <c r="AM1" s="0" t="str">
+        <v>Unit test result</v>
+      </c>
+      <c r="AN1" s="0" t="str">
+        <v>Code review result</v>
+      </c>
+      <c r="AO1" s="0" t="str">
+        <v>Test Results</v>
+      </c>
+      <c r="AP1" s="0" t="str">
+        <v>Correction Action</v>
+      </c>
+      <c r="AQ1" s="0" t="str">
+        <v>Reason</v>
+      </c>
+      <c r="AR1" s="0" t="str">
+        <v>Mitigation Plan</v>
+      </c>
+      <c r="AS1" s="0" t="str">
+        <v>Test scenario/Cases</v>
+      </c>
+      <c r="AT1" s="0" t="str">
+        <v>Risk Identified on</v>
+      </c>
+      <c r="AU1" s="0" t="str">
+        <v>Department</v>
+      </c>
+      <c r="AV1" s="0" t="str">
+        <v>Audit Type</v>
+      </c>
+      <c r="AW1" s="0" t="str">
+        <v>Design</v>
+      </c>
+      <c r="AX1" s="0" t="str">
+        <v>Priority</v>
+      </c>
+      <c r="AY1" s="0" t="str">
+        <v>RCA Comment</v>
+      </c>
+      <c r="AZ1" s="0" t="str">
+        <v>PTO</v>
+      </c>
+      <c r="BA1" s="0" t="str">
+        <v>Impact Description</v>
+      </c>
+      <c r="BB1" s="0" t="str">
+        <v>Bug Type</v>
+      </c>
+      <c r="BC1" s="0" t="str">
+        <v>Bug Classification</v>
+      </c>
+      <c r="BD1" s="0" t="str">
+        <v>Sequence</v>
+      </c>
+      <c r="BE1" s="0" t="str">
+        <v>Template</v>
+      </c>
+    </row>
+    <row r="2" spans="1:57" customFormat="false">
+      <c r="A2" s="0" t="str">
+        <v>1173149</v>
+      </c>
+      <c r="B2" s="0" t="str">
+        <v>DMO</v>
+      </c>
+      <c r="C2" s="0" t="str">
+        <v>Feature</v>
+      </c>
+      <c r="D2" s="0" t="str">
+        <v/>
+      </c>
+      <c r="E2" s="0" t="str">
+        <v>New</v>
+      </c>
+      <c r="F2" s="0" t="str">
+        <v>Minor Impact</v>
+      </c>
+      <c r="G2" s="0" t="str">
+        <v>test1</v>
+      </c>
+      <c r="H2" s="0" t="str">
+        <v>Shiva Reddy Srinivasa Reddy</v>
+      </c>
+      <c r="I2" s="0" t="str">
+        <v>Shiva Reddy Srinivasa Reddy</v>
+      </c>
+      <c r="J2" s="0" t="str">
+        <v>18 Mar 2016 06:07 PM</v>
+      </c>
+      <c r="K2" s="0" t="str">
+        <v/>
+      </c>
+      <c r="L2" s="0" t="str">
+        <v>test</v>
+      </c>
+      <c r="M2" s="0" t="str">
+        <v>18 Mar 2016</v>
+      </c>
+      <c r="N2" s="0" t="str">
+        <v/>
+      </c>
+      <c r="O2" s="0" t="str">
+        <v/>
+      </c>
+      <c r="P2" s="0" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="0" t="str">
+        <v>18 Mar 2016 06:07 PM</v>
+      </c>
+      <c r="R2" s="0" t="str">
+        <v/>
+      </c>
+      <c r="S2" s="0" t="str">
+        <v/>
+      </c>
+      <c r="T2" s="0" t="str">
+        <v>test1</v>
+      </c>
+      <c r="U2" s="0" t="str">
+        <v/>
+      </c>
+      <c r="V2" s="0" t="str">
+        <v/>
+      </c>
+      <c r="W2" s="0" t="str">
+        <v/>
+      </c>
+      <c r="X2" s="0" t="str">
+        <v/>
+      </c>
+      <c r="Y2" s="0" t="str">
+        <v/>
+      </c>
+      <c r="Z2" s="0" t="str">
+        <v/>
+      </c>
+      <c r="AA2" s="0" t="str">
+        <v/>
+      </c>
+      <c r="AB2" s="0" t="str">
+        <v/>
+      </c>
+      <c r="AC2" s="0" t="str">
+        <v/>
+      </c>
+      <c r="AD2" s="0" t="str">
+        <v/>
+      </c>
+      <c r="AE2" s="0" t="str">
+        <v/>
+      </c>
+      <c r="AF2" s="0" t="str">
+        <v/>
+      </c>
+      <c r="AG2" s="0" t="str">
+        <v/>
+      </c>
+      <c r="AH2" s="0" t="str">
+        <v/>
+      </c>
+      <c r="AI2" s="0" t="str">
+        <v/>
+      </c>
+      <c r="AJ2" s="0" t="str">
+        <v/>
+      </c>
+      <c r="AK2" s="0" t="str">
+        <v/>
+      </c>
+      <c r="AL2" s="0" t="str">
+        <v/>
+      </c>
+      <c r="AM2" s="0" t="str">
+        <v/>
+      </c>
+      <c r="AN2" s="0" t="str">
+        <v/>
+      </c>
+      <c r="AO2" s="0" t="str">
+        <v/>
+      </c>
+      <c r="AP2" s="0" t="str">
+        <v/>
+      </c>
+      <c r="AQ2" s="0" t="str">
+        <v/>
+      </c>
+      <c r="AR2" s="0" t="str">
+        <v/>
+      </c>
+      <c r="AS2" s="0" t="str">
+        <v/>
+      </c>
+      <c r="AT2" s="0" t="str">
+        <v/>
+      </c>
+      <c r="AU2" s="0" t="str">
+        <v/>
+      </c>
+      <c r="AV2" s="0" t="str">
+        <v/>
+      </c>
+      <c r="AW2" s="0" t="str">
+        <v/>
+      </c>
+      <c r="AX2" s="0" t="str">
+        <v/>
+      </c>
+      <c r="AY2" s="0" t="str">
+        <v/>
+      </c>
+      <c r="AZ2" s="0" t="str">
+        <v/>
+      </c>
+      <c r="BA2" s="0" t="str">
+        <v/>
+      </c>
+      <c r="BB2" s="0" t="str">
+        <v/>
+      </c>
+      <c r="BC2" s="0" t="str">
+        <v/>
+      </c>
+      <c r="BD2" s="0" t="str">
+        <v/>
+      </c>
+      <c r="BE2" s="0" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:57" customFormat="false">
+      <c r="A3" s="0" t="str">
+        <v>1173171</v>
+      </c>
+      <c r="B3" s="0" t="str">
+        <v>DMO</v>
+      </c>
+      <c r="C3" s="0" t="str">
+        <v>Feature</v>
+      </c>
+      <c r="D3" s="0" t="str">
+        <v/>
+      </c>
+      <c r="E3" s="0" t="str">
+        <v>New</v>
+      </c>
+      <c r="F3" s="0" t="str">
+        <v>Minor Impact</v>
+      </c>
+      <c r="G3" s="0" t="str">
+        <v>test33</v>
+      </c>
+      <c r="H3" s="0" t="str">
+        <v>Shiva Reddy Srinivasa Reddy</v>
+      </c>
+      <c r="I3" s="0" t="str">
+        <v>Shiva Reddy Srinivasa Reddy</v>
+      </c>
+      <c r="J3" s="0" t="str">
+        <v>18 Mar 2016 06:09 PM</v>
+      </c>
+      <c r="K3" s="0" t="str">
+        <v/>
+      </c>
+      <c r="L3" s="0" t="str">
+        <v>test</v>
+      </c>
+      <c r="M3" s="0" t="str">
+        <v>18 Mar 2016</v>
+      </c>
+      <c r="N3" s="0" t="str">
+        <v/>
+      </c>
+      <c r="O3" s="0" t="str">
+        <v/>
+      </c>
+      <c r="P3" s="0" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="0" t="str">
+        <v>18 Mar 2016 06:09 PM</v>
+      </c>
+      <c r="R3" s="0" t="str">
+        <v/>
+      </c>
+      <c r="S3" s="0" t="str">
+        <v/>
+      </c>
+      <c r="T3" s="0" t="str">
+        <v>test33</v>
+      </c>
+      <c r="U3" s="0" t="str">
+        <v/>
+      </c>
+      <c r="V3" s="0" t="str">
+        <v/>
+      </c>
+      <c r="W3" s="0" t="str">
+        <v/>
+      </c>
+      <c r="X3" s="0" t="str">
+        <v/>
+      </c>
+      <c r="Y3" s="0" t="str">
+        <v/>
+      </c>
+      <c r="Z3" s="0" t="str">
+        <v/>
+      </c>
+      <c r="AA3" s="0" t="str">
+        <v/>
+      </c>
+      <c r="AB3" s="0" t="str">
+        <v/>
+      </c>
+      <c r="AC3" s="0" t="str">
+        <v/>
+      </c>
+      <c r="AD3" s="0" t="str">
+        <v/>
+      </c>
+      <c r="AE3" s="0" t="str">
+        <v/>
+      </c>
+      <c r="AF3" s="0" t="str">
+        <v/>
+      </c>
+      <c r="AG3" s="0" t="str">
+        <v/>
+      </c>
+      <c r="AH3" s="0" t="str">
+        <v/>
+      </c>
+      <c r="AI3" s="0" t="str">
+        <v/>
+      </c>
+      <c r="AJ3" s="0" t="str">
+        <v/>
+      </c>
+      <c r="AK3" s="0" t="str">
+        <v/>
+      </c>
+      <c r="AL3" s="0" t="str">
+        <v/>
+      </c>
+      <c r="AM3" s="0" t="str">
+        <v/>
+      </c>
+      <c r="AN3" s="0" t="str">
+        <v/>
+      </c>
+      <c r="AO3" s="0" t="str">
+        <v/>
+      </c>
+      <c r="AP3" s="0" t="str">
+        <v/>
+      </c>
+      <c r="AQ3" s="0" t="str">
+        <v/>
+      </c>
+      <c r="AR3" s="0" t="str">
+        <v/>
+      </c>
+      <c r="AS3" s="0" t="str">
+        <v/>
+      </c>
+      <c r="AT3" s="0" t="str">
+        <v/>
+      </c>
+      <c r="AU3" s="0" t="str">
+        <v/>
+      </c>
+      <c r="AV3" s="0" t="str">
+        <v/>
+      </c>
+      <c r="AW3" s="0" t="str">
+        <v/>
+      </c>
+      <c r="AX3" s="0" t="str">
+        <v/>
+      </c>
+      <c r="AY3" s="0" t="str">
+        <v/>
+      </c>
+      <c r="AZ3" s="0" t="str">
+        <v/>
+      </c>
+      <c r="BA3" s="0" t="str">
+        <v/>
+      </c>
+      <c r="BB3" s="0" t="str">
+        <v/>
+      </c>
+      <c r="BC3" s="0" t="str">
+        <v/>
+      </c>
+      <c r="BD3" s="0" t="str">
+        <v/>
+      </c>
+      <c r="BE3" s="0" t="str">
+        <v/>
+      </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <printOptions horizontalCentered="false" verticalCentered="false" headings="false" gridLines="false" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+  <headerFooter differentOddEven="false" differentFirst="false">
+    <oddHeader val=""/>
+    <oddFooter val=""/>
   </headerFooter>
 </worksheet>
 </file>